--- a/Inputs/Combined_Food_Data.xlsx
+++ b/Inputs/Combined_Food_Data.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Il mio Drive\OQI_Project\Inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\OQI-UC002-DWave\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156D8199-AA41-4DE3-AA6B-8EFD8C911276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972706BE-613C-4BA6-B8DD-A150A23ECF80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15" yWindow="0" windowWidth="14400" windowHeight="15630" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14385" yWindow="-15" windowWidth="14430" windowHeight="15630" activeTab="2" xr2:uid="{0E85223E-EEFF-4862-9D5C-C6BD0B992ACC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="data from price" sheetId="2" r:id="rId2"/>
+    <sheet name="data from lca" sheetId="3" r:id="rId3"/>
+    <sheet name="nvs" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="297">
   <si>
     <t>Food_Name</t>
   </si>
@@ -150,13 +154,791 @@
   </si>
   <si>
     <t>Chickpeas</t>
+  </si>
+  <si>
+    <t>Cantaloupe</t>
+  </si>
+  <si>
+    <t>Tangerine</t>
+  </si>
+  <si>
+    <t>Grapefruit</t>
+  </si>
+  <si>
+    <t>Dragon fruit</t>
+  </si>
+  <si>
+    <t>Longans</t>
+  </si>
+  <si>
+    <t>Pear</t>
+  </si>
+  <si>
+    <t>Snake fruit</t>
+  </si>
+  <si>
+    <t>Pineapple</t>
+  </si>
+  <si>
+    <t>Rose apple</t>
+  </si>
+  <si>
+    <t>Starfruit</t>
+  </si>
+  <si>
+    <t>Coconut</t>
+  </si>
+  <si>
+    <t>White rice</t>
+  </si>
+  <si>
+    <t>Congee (rice porridge)</t>
+  </si>
+  <si>
+    <t>White rice noodles</t>
+  </si>
+  <si>
+    <t>Refined wheat pasta</t>
+  </si>
+  <si>
+    <t>Brown rice</t>
+  </si>
+  <si>
+    <t>Unsalted brown rice cakes</t>
+  </si>
+  <si>
+    <t>Whole wheat noodles</t>
+  </si>
+  <si>
+    <t>Whole wheat pasta</t>
+  </si>
+  <si>
+    <t>Sweet potato</t>
+  </si>
+  <si>
+    <t>Cassava</t>
+  </si>
+  <si>
+    <t>Taro</t>
+  </si>
+  <si>
+    <t>Breadfruit</t>
+  </si>
+  <si>
+    <t>Green banana</t>
+  </si>
+  <si>
+    <t>Red beans</t>
+  </si>
+  <si>
+    <t>Edamame</t>
+  </si>
+  <si>
+    <t>Mung beans</t>
+  </si>
+  <si>
+    <t>Oncom</t>
+  </si>
+  <si>
+    <t>Unsweetened soymilk</t>
+  </si>
+  <si>
+    <t>Peanut butter</t>
+  </si>
+  <si>
+    <t>Cashews</t>
+  </si>
+  <si>
+    <t>Sunflower seeds</t>
+  </si>
+  <si>
+    <t>Carrots</t>
+  </si>
+  <si>
+    <t>Red pepper</t>
+  </si>
+  <si>
+    <t>Water spinach</t>
+  </si>
+  <si>
+    <t>Chinese cabbage</t>
+  </si>
+  <si>
+    <t>Chinese broccoli</t>
+  </si>
+  <si>
+    <t>Broccoli</t>
+  </si>
+  <si>
+    <t>Sweet potato leaves</t>
+  </si>
+  <si>
+    <t>Pumpkin leaves</t>
+  </si>
+  <si>
+    <t>Drumstick leaves</t>
+  </si>
+  <si>
+    <t>Cassava leaves</t>
+  </si>
+  <si>
+    <t>Tree fern</t>
+  </si>
+  <si>
+    <t>Green beans</t>
+  </si>
+  <si>
+    <t>Winged beans</t>
+  </si>
+  <si>
+    <t>Green pepper</t>
+  </si>
+  <si>
+    <t>Chayote</t>
+  </si>
+  <si>
+    <t>Mung bean sprouts</t>
+  </si>
+  <si>
+    <t>Radish</t>
+  </si>
+  <si>
+    <t>Cauliflower</t>
+  </si>
+  <si>
+    <t>Mushrooms</t>
+  </si>
+  <si>
+    <t>Bitter melon</t>
+  </si>
+  <si>
+    <t>Luffa gourd</t>
+  </si>
+  <si>
+    <t>Zucchini</t>
+  </si>
+  <si>
+    <t>Low-fat cottage cheese</t>
+  </si>
+  <si>
+    <t>Full-fat cheese</t>
+  </si>
+  <si>
+    <t>Plain whole yogurt</t>
+  </si>
+  <si>
+    <t>Beef organs</t>
+  </si>
+  <si>
+    <t>Goat</t>
+  </si>
+  <si>
+    <t>Buffalo</t>
+  </si>
+  <si>
+    <t>Deer</t>
+  </si>
+  <si>
+    <t>Boar</t>
+  </si>
+  <si>
+    <t>Horse</t>
+  </si>
+  <si>
+    <t>Rabbit</t>
+  </si>
+  <si>
+    <t>Dove</t>
+  </si>
+  <si>
+    <t>Chicken organs</t>
+  </si>
+  <si>
+    <t>Duck</t>
+  </si>
+  <si>
+    <t>Lean fish</t>
+  </si>
+  <si>
+    <t>Fatty fish</t>
+  </si>
+  <si>
+    <t>Crustaceans</t>
+  </si>
+  <si>
+    <t>Bivalves</t>
+  </si>
+  <si>
+    <t>Whole milk powder</t>
+  </si>
+  <si>
+    <t>Whole cow milk</t>
+  </si>
+  <si>
+    <t>Whole sheep milk</t>
+  </si>
+  <si>
+    <t>Malta orange</t>
+  </si>
+  <si>
+    <t>Custard apple</t>
+  </si>
+  <si>
+    <t>Jackfruit</t>
+  </si>
+  <si>
+    <t>Jujube</t>
+  </si>
+  <si>
+    <t>Java plum (jambolan)</t>
+  </si>
+  <si>
+    <t>Hog plum (amra)</t>
+  </si>
+  <si>
+    <t>Lychee</t>
+  </si>
+  <si>
+    <t>Paratha</t>
+  </si>
+  <si>
+    <t>Chapati (roti)</t>
+  </si>
+  <si>
+    <t>Unsalted popcorn</t>
+  </si>
+  <si>
+    <t>Plaintain</t>
+  </si>
+  <si>
+    <t>Dal</t>
+  </si>
+  <si>
+    <t>Jackfruit seeds</t>
+  </si>
+  <si>
+    <t>Malabar spinach</t>
+  </si>
+  <si>
+    <t>Red amaranth leaves</t>
+  </si>
+  <si>
+    <t>Amaranth leaves</t>
+  </si>
+  <si>
+    <t>Okra</t>
+  </si>
+  <si>
+    <t>Calabash</t>
+  </si>
+  <si>
+    <t>Pointed gourd</t>
+  </si>
+  <si>
+    <t>Ash gourd</t>
+  </si>
+  <si>
+    <t>Kohlrabi</t>
+  </si>
+  <si>
+    <t>Taro shoots</t>
+  </si>
+  <si>
+    <t>Green papaya</t>
+  </si>
+  <si>
+    <t>Paneer</t>
+  </si>
+  <si>
+    <t>Chicken liver</t>
+  </si>
+  <si>
+    <t>Quail</t>
+  </si>
+  <si>
+    <t>Dried fish</t>
+  </si>
+  <si>
+    <t>Dates</t>
+  </si>
+  <si>
+    <t>Bread (refined wheat flour)</t>
+  </si>
+  <si>
+    <t>Flat bread (refined wheat flour)</t>
+  </si>
+  <si>
+    <t>White rice (medium-grain)</t>
+  </si>
+  <si>
+    <t>White rice (long-grain)</t>
+  </si>
+  <si>
+    <t>White rice (short-grain)</t>
+  </si>
+  <si>
+    <t>Sorghum</t>
+  </si>
+  <si>
+    <t>Corn flakes</t>
+  </si>
+  <si>
+    <t>Bread (whole-wheat)</t>
+  </si>
+  <si>
+    <t>Agidi</t>
+  </si>
+  <si>
+    <t>Yellow sweet corn</t>
+  </si>
+  <si>
+    <t>White sweet corn</t>
+  </si>
+  <si>
+    <t>Fresh maize</t>
+  </si>
+  <si>
+    <t>Millet</t>
+  </si>
+  <si>
+    <t>Oats</t>
+  </si>
+  <si>
+    <t>Wheat</t>
+  </si>
+  <si>
+    <t>Fufu</t>
+  </si>
+  <si>
+    <t>White gari</t>
+  </si>
+  <si>
+    <t>Yellow plantain</t>
+  </si>
+  <si>
+    <t>Green plantain</t>
+  </si>
+  <si>
+    <t>Water yam</t>
+  </si>
+  <si>
+    <t>Yam</t>
+  </si>
+  <si>
+    <t>Instant noodles</t>
+  </si>
+  <si>
+    <t>Cowpea pancakes (fried)</t>
+  </si>
+  <si>
+    <t>Brown cowpeas</t>
+  </si>
+  <si>
+    <t>Blackeyes cowpeas</t>
+  </si>
+  <si>
+    <t>Moin-moin (steamed bean pudding)</t>
+  </si>
+  <si>
+    <t>Soybeans</t>
+  </si>
+  <si>
+    <t>Roasted peanuts</t>
+  </si>
+  <si>
+    <t>Melon seeds</t>
+  </si>
+  <si>
+    <t>African mango seeds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cashews </t>
+  </si>
+  <si>
+    <t>Dried baobab leaves</t>
+  </si>
+  <si>
+    <t>Fresh baobab leaves</t>
+  </si>
+  <si>
+    <t>Bitter leaves</t>
+  </si>
+  <si>
+    <t>Jute mallow leaves</t>
+  </si>
+  <si>
+    <t>Waterleaf</t>
+  </si>
+  <si>
+    <t>Wild spinach</t>
+  </si>
+  <si>
+    <t>Garden eggplant</t>
+  </si>
+  <si>
+    <t>Lettuce</t>
+  </si>
+  <si>
+    <t>Dried okra</t>
+  </si>
+  <si>
+    <t>Onion</t>
+  </si>
+  <si>
+    <t>Snail</t>
+  </si>
+  <si>
+    <t>Sirloin steak (beef)</t>
+  </si>
+  <si>
+    <t>Ground beef</t>
+  </si>
+  <si>
+    <t>Beef head</t>
+  </si>
+  <si>
+    <t>Veal chops</t>
+  </si>
+  <si>
+    <t>Mutton</t>
+  </si>
+  <si>
+    <t>Beef liver</t>
+  </si>
+  <si>
+    <t>Ground pork</t>
+  </si>
+  <si>
+    <t>Shoulder blade steak (pork)</t>
+  </si>
+  <si>
+    <t>Pork feet</t>
+  </si>
+  <si>
+    <t>Chicken wings</t>
+  </si>
+  <si>
+    <t>Whole chicken (excl giblets &amp; neck)</t>
+  </si>
+  <si>
+    <t>Whole chicken (incl giblets &amp; neck)</t>
+  </si>
+  <si>
+    <t>Guinea fowl</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Chicken gizzard</t>
+  </si>
+  <si>
+    <t>Dried &amp; salted stockfish</t>
+  </si>
+  <si>
+    <t>Catfish</t>
+  </si>
+  <si>
+    <t>Mudfish</t>
+  </si>
+  <si>
+    <t>Croaker</t>
+  </si>
+  <si>
+    <t>Mackerel</t>
+  </si>
+  <si>
+    <t>Canned mackerel</t>
+  </si>
+  <si>
+    <t>Canned sardines</t>
+  </si>
+  <si>
+    <t>Sardines</t>
+  </si>
+  <si>
+    <t>Dried shrimp</t>
+  </si>
+  <si>
+    <t>Dried crayfish</t>
+  </si>
+  <si>
+    <t>Tilapia</t>
+  </si>
+  <si>
+    <t>Canned tuna</t>
+  </si>
+  <si>
+    <t>Sour milk</t>
+  </si>
+  <si>
+    <t>Whole evaporated milk</t>
+  </si>
+  <si>
+    <t>Skimmed milk powder</t>
+  </si>
+  <si>
+    <t>NVS_100</t>
+  </si>
+  <si>
+    <t>Fresh bread</t>
+  </si>
+  <si>
+    <t>Shelled corn/corn rice/titi corn</t>
+  </si>
+  <si>
+    <t>Flour</t>
+  </si>
+  <si>
+    <t>Rice (local rice, superior quality, imported)</t>
+  </si>
+  <si>
+    <t>Raw corn with husk</t>
+  </si>
+  <si>
+    <t>Glutinous rice</t>
+  </si>
+  <si>
+    <t>Gaplek (traditional javanese dried casava)</t>
+  </si>
+  <si>
+    <t>Ambon banana</t>
+  </si>
+  <si>
+    <t>Alpukat</t>
+  </si>
+  <si>
+    <t>Salak</t>
+  </si>
+  <si>
+    <t>Orange, Pomelo</t>
+  </si>
+  <si>
+    <t>Oranges, grapefruit</t>
+  </si>
+  <si>
+    <t>Apples</t>
+  </si>
+  <si>
+    <t>Long beans</t>
+  </si>
+  <si>
+    <t>Cassava leaf</t>
+  </si>
+  <si>
+    <t>Kale</t>
+  </si>
+  <si>
+    <t>Carrot</t>
+  </si>
+  <si>
+    <t>Vegetable tomatoes, cherry tomatoes</t>
+  </si>
+  <si>
+    <t>Young papaya</t>
+  </si>
+  <si>
+    <t>Pumpkin, chayote, machete pumpkin</t>
+  </si>
+  <si>
+    <t>Tomato fruit</t>
+  </si>
+  <si>
+    <t>Bean Sprouts</t>
+  </si>
+  <si>
+    <t>Skinless peanuts</t>
+  </si>
+  <si>
+    <t>Carp</t>
+  </si>
+  <si>
+    <t>Manufactured Milk</t>
+  </si>
+  <si>
+    <t>Cork preserved</t>
+  </si>
+  <si>
+    <t>Goldfish</t>
+  </si>
+  <si>
+    <t>ingested meat, brisket</t>
+  </si>
+  <si>
+    <t>Milkfish</t>
+  </si>
+  <si>
+    <t>sea fish preserved</t>
+  </si>
+  <si>
+    <t>Canned fish</t>
+  </si>
+  <si>
+    <t>Fresh anchovy</t>
+  </si>
+  <si>
+    <t>Barred Mackerel</t>
+  </si>
+  <si>
+    <t>Mackerel Tuna</t>
+  </si>
+  <si>
+    <t>Purebred chicken meat</t>
+  </si>
+  <si>
+    <t>Powdered milk</t>
+  </si>
+  <si>
+    <t>Tuna</t>
+  </si>
+  <si>
+    <t>Pomfret</t>
+  </si>
+  <si>
+    <t>Yellow tail</t>
+  </si>
+  <si>
+    <t>Skipjack, dencis</t>
+  </si>
+  <si>
+    <t>Free-range chicken meat</t>
+  </si>
+  <si>
+    <t>Long jawed, lema/tatare, banyar/banyara</t>
+  </si>
+  <si>
+    <t>Cork</t>
+  </si>
+  <si>
+    <t>pork</t>
+  </si>
+  <si>
+    <t>Shrimp and other fresh aquatic animals</t>
+  </si>
+  <si>
+    <t>carp</t>
+  </si>
+  <si>
+    <t>Preserved long jawed/salted</t>
+  </si>
+  <si>
+    <t>cork</t>
+  </si>
+  <si>
+    <t>Mutton, lamb/sheep</t>
+  </si>
+  <si>
+    <t>Preserved shrimp (ebi, rebon)</t>
+  </si>
+  <si>
+    <t>Preserved Barred Mackerel/salted</t>
+  </si>
+  <si>
+    <t>Snakehead catfish</t>
+  </si>
+  <si>
+    <t>shrimp preserved (ebi, rebon)</t>
+  </si>
+  <si>
+    <t>Mackerel preserved</t>
+  </si>
+  <si>
+    <t>Snapper</t>
+  </si>
+  <si>
+    <t>Preserved Long jawed/salted</t>
+  </si>
+  <si>
+    <t>Shrimp, lobster</t>
+  </si>
+  <si>
+    <t>seafish preserved</t>
+  </si>
+  <si>
+    <t>Anchovy preserved</t>
+  </si>
+  <si>
+    <t>cork preserved</t>
+  </si>
+  <si>
+    <t>snapper</t>
+  </si>
+  <si>
+    <t>tightly crab, crab, flower crabs</t>
+  </si>
+  <si>
+    <t>Nile tilapia</t>
+  </si>
+  <si>
+    <t>Clams, slug, snails, mussels</t>
+  </si>
+  <si>
+    <t>Oysters, cuttlefish, crabs</t>
+  </si>
+  <si>
+    <t>Food group</t>
+  </si>
+  <si>
+    <t>Legumes nuts and seeds</t>
+  </si>
+  <si>
+    <t>Animal source foods</t>
+  </si>
+  <si>
+    <t>affordability_100</t>
+  </si>
+  <si>
+    <t>Food_LCAname</t>
+  </si>
+  <si>
+    <t>Lean fish (tilapia)</t>
+  </si>
+  <si>
+    <t>Crustaceans (shrimps)</t>
+  </si>
+  <si>
+    <t>Cheese, hard</t>
+  </si>
+  <si>
+    <t>Cheese, soft</t>
+  </si>
+  <si>
+    <t>Bivalves (mussles)</t>
+  </si>
+  <si>
+    <t>Fatty fish (tuna)</t>
+  </si>
+  <si>
+    <t>Whole goat milk</t>
+  </si>
+  <si>
+    <t>Sweet corn</t>
+  </si>
+  <si>
+    <t>Mushrooms (shiitake)</t>
+  </si>
+  <si>
+    <t>Cheese, paneer</t>
+  </si>
+  <si>
+    <t>Egg, omelet</t>
+  </si>
+  <si>
+    <t>Peanuts (raw/oil-roasted)</t>
+  </si>
+  <si>
+    <t>Food_group</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,6 +950,31 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -205,11 +1012,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -514,9 +1331,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -554,186 +1372,186 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C2">
+        <v>0.596776269274647</v>
+      </c>
+      <c r="D2">
+        <v>0.54236400733538803</v>
+      </c>
+      <c r="E2">
+        <v>3.8109319679211114E-3</v>
+      </c>
+      <c r="F2">
         <v>0.44675532053217798</v>
       </c>
-      <c r="D2">
-        <v>0.245789776795801</v>
-      </c>
-      <c r="E2">
-        <v>7.574409624722174E-2</v>
-      </c>
-      <c r="F2">
-        <v>4.4222945049783389E-3</v>
-      </c>
       <c r="G2">
-        <v>2.6142069279535746E-2</v>
+        <v>2.4143616814191367E-2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C3">
-        <v>0.47536766593622404</v>
+        <v>0.55334009860256994</v>
       </c>
       <c r="D3">
-        <v>0.274841977758773</v>
+        <v>0.43359771887426396</v>
       </c>
       <c r="E3">
-        <v>0.17782852711208683</v>
+        <v>2.4874451204768201E-2</v>
       </c>
       <c r="F3">
-        <v>1.7231306128697662E-2</v>
+        <v>1.2763595613399046E-3</v>
       </c>
       <c r="G3">
-        <v>3.984385830675978E-2</v>
+        <v>5.7244095714069416E-2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C4">
-        <v>0.470731367327134</v>
+        <v>0.58373154938024197</v>
       </c>
       <c r="D4">
-        <v>0.253720108918362</v>
+        <v>0.48514165743411602</v>
       </c>
       <c r="E4">
-        <v>0.12800531293250555</v>
+        <v>3.425901288282901E-2</v>
       </c>
       <c r="F4">
-        <v>8.2687869379938217E-3</v>
+        <v>1.6665155104019782E-3</v>
       </c>
       <c r="G4">
-        <v>2.5363843575056295E-2</v>
+        <v>2.1682993801565954E-2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C5">
-        <v>0.41947604538885896</v>
+        <v>0.59412814460176799</v>
       </c>
       <c r="D5">
-        <v>0.19630267664385501</v>
+        <v>0.53323922177477501</v>
       </c>
       <c r="E5">
-        <v>0.11399275998139967</v>
+        <v>8.7968420487218989E-3</v>
       </c>
       <c r="F5">
-        <v>8.825792970633321E-3</v>
+        <v>4.5560263673949316E-4</v>
       </c>
       <c r="G5">
-        <v>8.0061168227425969E-2</v>
+        <v>2.4186244828667835E-2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C6">
-        <v>0.51564904841044801</v>
+        <v>0.58397142438088001</v>
       </c>
       <c r="D6">
-        <v>0.310151093648459</v>
+        <v>0.52333691797248294</v>
       </c>
       <c r="E6">
-        <v>0.17909752401980733</v>
+        <v>1.6529337989578632E-2</v>
       </c>
       <c r="F6">
-        <v>1.2034650560317391E-2</v>
+        <v>8.2158989576448511E-4</v>
       </c>
       <c r="G6">
-        <v>5.6988594615768058E-2</v>
+        <v>0.37432572945624221</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7">
-        <v>0.31112340745553801</v>
+        <v>0.37095068352488703</v>
       </c>
       <c r="D7">
-        <v>7.0568753994476499E-2</v>
+        <v>8.8374294202799297E-2</v>
       </c>
       <c r="E7">
-        <v>8.3266548893878273E-2</v>
+        <v>7.7622624522227096E-2</v>
       </c>
       <c r="F7">
-        <v>8.8999761828423493E-3</v>
+        <v>4.5009437873104402E-3</v>
       </c>
       <c r="G7">
-        <v>1.5170339825564941E-2</v>
+        <v>1.33234414184075E-2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.37095068352488703</v>
+        <v>0.46738860837186103</v>
       </c>
       <c r="D8">
-        <v>8.8374294202799297E-2</v>
+        <v>0.24548343891042901</v>
       </c>
       <c r="E8">
-        <v>7.7622624522227096E-2</v>
+        <v>5.1065318454860995E-2</v>
       </c>
       <c r="F8">
-        <v>4.5009437873104402E-3</v>
+        <v>2.5790330837599878E-3</v>
       </c>
       <c r="G8">
-        <v>1.33234414184075E-2</v>
+        <v>3.5717649677393257E-2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9">
-        <v>0.46738860837186103</v>
+        <v>0.41947604538885896</v>
       </c>
       <c r="D9">
-        <v>0.24548343891042901</v>
+        <v>0.19630267664385501</v>
       </c>
       <c r="E9">
-        <v>5.1065318454860995E-2</v>
+        <v>0.11399275998139967</v>
       </c>
       <c r="F9">
-        <v>2.5790330837599878E-3</v>
+        <v>8.825792970633321E-3</v>
       </c>
       <c r="G9">
-        <v>3.5717649677393257E-2</v>
+        <v>8.0061168227425969E-2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -761,419 +1579,6986 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>0.39082180404826899</v>
+        <v>0.51564904841044801</v>
       </c>
       <c r="D11">
-        <v>0.153545052538761</v>
+        <v>0.310151093648459</v>
       </c>
       <c r="E11">
-        <v>0.12140786437415593</v>
+        <v>0.17909752401980733</v>
       </c>
       <c r="F11">
-        <v>1.1303012475140452E-2</v>
+        <v>1.2034650560317391E-2</v>
       </c>
       <c r="G11">
-        <v>0.41790464274068151</v>
+        <v>5.6988594615768058E-2</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C12">
-        <v>0.47817326934510296</v>
+        <v>0.44675532053217798</v>
       </c>
       <c r="D12">
-        <v>0.30525499938896899</v>
+        <v>0.245789776795801</v>
       </c>
       <c r="E12">
-        <v>0.12462514927376565</v>
+        <v>7.574409624722174E-2</v>
       </c>
       <c r="F12">
-        <v>1.1250087968459752E-2</v>
+        <v>4.4222945049783389E-3</v>
       </c>
       <c r="G12">
-        <v>9.3440425796641288E-2</v>
+        <v>2.6142069279535746E-2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C13">
-        <v>0.52108223386483998</v>
+        <v>0.470731367327134</v>
       </c>
       <c r="D13">
-        <v>0.34712365777687898</v>
+        <v>0.253720108918362</v>
       </c>
       <c r="E13">
-        <v>0.10520610606447961</v>
+        <v>0.12800531293250555</v>
       </c>
       <c r="F13">
-        <v>1.8768210259633041E-2</v>
+        <v>8.2687869379938217E-3</v>
       </c>
       <c r="G13">
-        <v>0.10258937197938611</v>
+        <v>2.5363843575056295E-2</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C14">
-        <v>0.53913383881028798</v>
+        <v>0.47536766593622404</v>
       </c>
       <c r="D14">
-        <v>0.39455729827300201</v>
+        <v>0.274841977758773</v>
       </c>
       <c r="E14">
-        <v>0.111485809201798</v>
+        <v>0.17782852711208683</v>
       </c>
       <c r="F14">
-        <v>2.013317100578817E-2</v>
+        <v>1.7231306128697662E-2</v>
       </c>
       <c r="G14">
-        <v>0.22481852948880923</v>
+        <v>3.984385830675978E-2</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C15">
-        <v>0.46503016512109702</v>
+        <v>0.31112340745553801</v>
       </c>
       <c r="D15">
-        <v>0.42680796035967705</v>
+        <v>7.0568753994476499E-2</v>
       </c>
       <c r="E15">
-        <v>5.464126841587344E-2</v>
+        <v>8.3266548893878273E-2</v>
       </c>
       <c r="F15">
-        <v>3.0950379691144759E-3</v>
+        <v>8.8999761828423493E-3</v>
       </c>
       <c r="G15">
-        <v>0.26777744110925855</v>
+        <v>1.5170339825564941E-2</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C16">
-        <v>0.58894328858470102</v>
+        <v>0.51525928531251208</v>
       </c>
       <c r="D16">
-        <v>0.47664549099229497</v>
+        <v>0.32861893779159201</v>
       </c>
       <c r="E16">
-        <v>5.7856554844611087E-2</v>
+        <v>0.14042950277114102</v>
       </c>
       <c r="F16">
-        <v>3.0379269138100314E-3</v>
+        <v>1.2457050302881032E-2</v>
       </c>
       <c r="G16">
-        <v>3.3806548054821521E-2</v>
+        <v>0.39800339858022421</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C17">
-        <v>0.90323551133209401</v>
+        <v>0.46503016512109702</v>
       </c>
       <c r="D17">
-        <v>0.93460552653344098</v>
+        <v>0.42680796035967705</v>
       </c>
       <c r="E17">
-        <v>8.5858678160536411E-2</v>
+        <v>5.464126841587344E-2</v>
       </c>
       <c r="F17">
-        <v>4.3354894320615338E-3</v>
+        <v>3.0950379691144759E-3</v>
       </c>
       <c r="G17">
-        <v>3.6173194067532888E-2</v>
+        <v>0.26777744110925855</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C18">
-        <v>0.58161099063908805</v>
+        <v>0.53913383881028798</v>
       </c>
       <c r="D18">
-        <v>0.43943687693865002</v>
+        <v>0.39455729827300201</v>
       </c>
       <c r="E18">
-        <v>0.10391441432724983</v>
+        <v>0.111485809201798</v>
       </c>
       <c r="F18">
-        <v>6.099062045294994E-3</v>
+        <v>2.013317100578817E-2</v>
       </c>
       <c r="G18">
-        <v>3.8736370721474997E-2</v>
+        <v>0.22481852948880923</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C19">
-        <v>0.56157467143235695</v>
+        <v>0.52108223386483998</v>
       </c>
       <c r="D19">
-        <v>0.41271943010666201</v>
+        <v>0.34712365777687898</v>
       </c>
       <c r="E19">
-        <v>8.2113472937392865E-2</v>
+        <v>0.10520610606447961</v>
       </c>
       <c r="F19">
-        <v>4.7166074518843609E-3</v>
+        <v>1.8768210259633041E-2</v>
       </c>
       <c r="G19">
-        <v>0.36344203355069127</v>
+        <v>0.10258937197938611</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C20">
-        <v>0.63762300039348607</v>
+        <v>0.39082180404826899</v>
       </c>
       <c r="D20">
-        <v>0.50071184143580805</v>
+        <v>0.153545052538761</v>
       </c>
       <c r="E20">
-        <v>7.9079484013073534E-2</v>
+        <v>0.12140786437415593</v>
       </c>
       <c r="F20">
-        <v>4.2846382683804666E-3</v>
+        <v>1.1303012475140452E-2</v>
       </c>
       <c r="G20">
-        <v>3.412832548513451E-2</v>
+        <v>0.41790464274068151</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C21">
-        <v>0.39673727593325403</v>
+        <v>0.47817326934510296</v>
       </c>
       <c r="D21">
-        <v>0.17312506575447903</v>
+        <v>0.30525499938896899</v>
       </c>
       <c r="E21">
-        <v>5.9719144008349261E-2</v>
+        <v>0.12462514927376565</v>
       </c>
       <c r="F21">
-        <v>3.4537472798519694E-3</v>
+        <v>1.1250087968459752E-2</v>
       </c>
       <c r="G21">
-        <v>2.1682993801565954E-2</v>
+        <v>9.3440425796641288E-2</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
         <v>25</v>
       </c>
       <c r="C22">
-        <v>0.43056922753391702</v>
+        <v>0.63762300039348607</v>
       </c>
       <c r="D22">
-        <v>0.22721589937261299</v>
+        <v>0.50071184143580805</v>
       </c>
       <c r="E22">
-        <v>0.10575938731454118</v>
+        <v>7.9079484013073534E-2</v>
       </c>
       <c r="F22">
-        <v>8.4435866315352385E-3</v>
+        <v>4.2846382683804666E-3</v>
       </c>
       <c r="G22">
-        <v>1.8847096163496634E-2</v>
+        <v>3.412832548513451E-2</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C23">
-        <v>0.58373154938024197</v>
+        <v>0.43056922753391702</v>
       </c>
       <c r="D23">
-        <v>0.48514165743411602</v>
+        <v>0.22721589937261299</v>
       </c>
       <c r="E23">
-        <v>3.425901288282901E-2</v>
+        <v>0.10575938731454118</v>
       </c>
       <c r="F23">
-        <v>1.6665155104019782E-3</v>
+        <v>8.4435866315352385E-3</v>
       </c>
       <c r="G23">
-        <v>2.1682993801565954E-2</v>
+        <v>1.8847096163496634E-2</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C24">
-        <v>0.596776269274647</v>
+        <v>0.39673727593325403</v>
       </c>
       <c r="D24">
-        <v>0.54236400733538803</v>
+        <v>0.17312506575447903</v>
       </c>
       <c r="E24">
-        <v>3.8109319679211114E-3</v>
+        <v>5.9719144008349261E-2</v>
       </c>
       <c r="F24">
-        <v>0.44675532053217798</v>
+        <v>3.4537472798519694E-3</v>
       </c>
       <c r="G24">
-        <v>2.4143616814191367E-2</v>
+        <v>2.1682993801565954E-2</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C25">
-        <v>0.59412814460176799</v>
+        <v>0.56157467143235695</v>
       </c>
       <c r="D25">
-        <v>0.53323922177477501</v>
+        <v>0.41271943010666201</v>
       </c>
       <c r="E25">
-        <v>8.7968420487218989E-3</v>
+        <v>8.2113472937392865E-2</v>
       </c>
       <c r="F25">
-        <v>4.5560263673949316E-4</v>
+        <v>4.7166074518843609E-3</v>
       </c>
       <c r="G25">
-        <v>2.4186244828667835E-2</v>
+        <v>0.36344203355069127</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C26">
-        <v>0.58397142438088001</v>
+        <v>0.58894328858470102</v>
       </c>
       <c r="D26">
-        <v>0.52333691797248294</v>
+        <v>0.47664549099229497</v>
       </c>
       <c r="E26">
-        <v>1.6529337989578632E-2</v>
+        <v>5.7856554844611087E-2</v>
       </c>
       <c r="F26">
-        <v>8.2158989576448511E-4</v>
+        <v>3.0379269138100314E-3</v>
       </c>
       <c r="G26">
-        <v>0.37432572945624221</v>
+        <v>3.3806548054821521E-2</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C27">
-        <v>0.55334009860256994</v>
+        <v>0.90323551133209401</v>
       </c>
       <c r="D27">
-        <v>0.43359771887426396</v>
+        <v>0.93460552653344098</v>
       </c>
       <c r="E27">
-        <v>2.4874451204768201E-2</v>
+        <v>8.5858678160536411E-2</v>
       </c>
       <c r="F27">
-        <v>1.2763595613399046E-3</v>
+        <v>4.3354894320615338E-3</v>
       </c>
       <c r="G27">
-        <v>5.7244095714069416E-2</v>
+        <v>3.6173194067532888E-2</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C28">
-        <v>0.51525928531251208</v>
+        <v>0.58161099063908805</v>
       </c>
       <c r="D28">
-        <v>0.32861893779159201</v>
+        <v>0.43943687693865002</v>
       </c>
       <c r="E28">
-        <v>0.14042950277114102</v>
+        <v>0.10391441432724983</v>
       </c>
       <c r="F28">
-        <v>1.2457050302881032E-2</v>
+        <v>6.099062045294994E-3</v>
       </c>
       <c r="G28">
-        <v>0.39800339858022421</v>
+        <v>3.8736370721474997E-2</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G28">
+    <sortCondition ref="B2:B28"/>
+    <sortCondition ref="A2:A28"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66EEEDFA-07B7-4EEF-8A3A-CF758CEBC6AA}">
+  <dimension ref="A1:D91"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+    <sheetView topLeftCell="A60" workbookViewId="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="4" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C2" s="4">
+        <v>6.36538189007958</v>
+      </c>
+      <c r="D2">
+        <v>3.5067094772767322</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C3" s="4">
+        <v>23.993869408464764</v>
+      </c>
+      <c r="D3">
+        <v>13.218300284910594</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C4" s="4">
+        <v>9.8097349551300361</v>
+      </c>
+      <c r="D4">
+        <v>5.4042147243890293</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>244</v>
+      </c>
+      <c r="B5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C5" s="4">
+        <v>31.762399918650125</v>
+      </c>
+      <c r="D5">
+        <v>17.498008876634991</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>237</v>
+      </c>
+      <c r="B6" t="s">
+        <v>281</v>
+      </c>
+      <c r="C6" s="4">
+        <v>93.782791893576999</v>
+      </c>
+      <c r="D6">
+        <v>51.665243471286281</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>259</v>
+      </c>
+      <c r="B7" t="s">
+        <v>281</v>
+      </c>
+      <c r="C7" s="4">
+        <v>11.722848986697125</v>
+      </c>
+      <c r="D7">
+        <v>6.4581554339107852</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B8" t="s">
+        <v>281</v>
+      </c>
+      <c r="C8" s="4">
+        <v>9.5278903479717876</v>
+      </c>
+      <c r="D8">
+        <v>5.2489456184487393</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>277</v>
+      </c>
+      <c r="B9" t="s">
+        <v>281</v>
+      </c>
+      <c r="C9" s="4">
+        <v>4.6912493632647658</v>
+      </c>
+      <c r="D9">
+        <v>2.5844244519040664</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>256</v>
+      </c>
+      <c r="B10" t="s">
+        <v>281</v>
+      </c>
+      <c r="C10" s="4">
+        <v>14.192271213297731</v>
+      </c>
+      <c r="D10">
+        <v>7.8185681279101855</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>261</v>
+      </c>
+      <c r="B11" t="s">
+        <v>281</v>
+      </c>
+      <c r="C11" s="4">
+        <v>10.191146449532182</v>
+      </c>
+      <c r="D11">
+        <v>5.6143355506424824</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>239</v>
+      </c>
+      <c r="B12" t="s">
+        <v>281</v>
+      </c>
+      <c r="C12" s="4">
+        <v>44.8249942067186</v>
+      </c>
+      <c r="D12">
+        <v>24.694234331572769</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>273</v>
+      </c>
+      <c r="B13" t="s">
+        <v>281</v>
+      </c>
+      <c r="C13" s="4">
+        <v>6.1124990508367167</v>
+      </c>
+      <c r="D13">
+        <v>3.367395502981545</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B14" t="s">
+        <v>281</v>
+      </c>
+      <c r="C14" s="4">
+        <v>15.804959102708773</v>
+      </c>
+      <c r="D14">
+        <v>8.7070031037441975</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>245</v>
+      </c>
+      <c r="B15" t="s">
+        <v>281</v>
+      </c>
+      <c r="C15" s="4">
+        <v>31.507341519637283</v>
+      </c>
+      <c r="D15">
+        <v>17.357496379423893</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>240</v>
+      </c>
+      <c r="B16" t="s">
+        <v>281</v>
+      </c>
+      <c r="C16" s="4">
+        <v>35.107138057818858</v>
+      </c>
+      <c r="D16">
+        <v>19.340635938793124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>241</v>
+      </c>
+      <c r="B17" t="s">
+        <v>281</v>
+      </c>
+      <c r="C17" s="4">
+        <v>34.638093085778074</v>
+      </c>
+      <c r="D17">
+        <v>19.082237546186416</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>255</v>
+      </c>
+      <c r="B18" t="s">
+        <v>281</v>
+      </c>
+      <c r="C18" s="4">
+        <v>15.256740535873481</v>
+      </c>
+      <c r="D18">
+        <v>8.4049877216134714</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>202</v>
+      </c>
+      <c r="B19" t="s">
+        <v>281</v>
+      </c>
+      <c r="C19" s="4">
+        <v>18.45746002738499</v>
+      </c>
+      <c r="D19">
+        <v>10.16827444483118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>267</v>
+      </c>
+      <c r="B20" t="s">
+        <v>281</v>
+      </c>
+      <c r="C20" s="4">
+        <v>7.9812801741417108</v>
+      </c>
+      <c r="D20">
+        <v>4.3969130699106751</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>247</v>
+      </c>
+      <c r="B21" t="s">
+        <v>281</v>
+      </c>
+      <c r="C21" s="4">
+        <v>23.860795740437482</v>
+      </c>
+      <c r="D21">
+        <v>13.144989570658787</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>238</v>
+      </c>
+      <c r="B22" t="s">
+        <v>281</v>
+      </c>
+      <c r="C22" s="4">
+        <v>65.787340563647533</v>
+      </c>
+      <c r="D22">
+        <v>36.242458759452468</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>242</v>
+      </c>
+      <c r="B23" t="s">
+        <v>281</v>
+      </c>
+      <c r="C23" s="4">
+        <v>33.158190822657879</v>
+      </c>
+      <c r="D23">
+        <v>18.266954601479704</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>262</v>
+      </c>
+      <c r="B24" t="s">
+        <v>281</v>
+      </c>
+      <c r="C24" s="4">
+        <v>9.8270550413000493</v>
+      </c>
+      <c r="D24">
+        <v>5.4137564158960689</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>276</v>
+      </c>
+      <c r="B25" t="s">
+        <v>281</v>
+      </c>
+      <c r="C25" s="4">
+        <v>5.1048721285789105</v>
+      </c>
+      <c r="D25">
+        <v>2.8122905715166304</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>278</v>
+      </c>
+      <c r="B26" t="s">
+        <v>281</v>
+      </c>
+      <c r="C26" s="4">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>0.55090323531757357</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>251</v>
+      </c>
+      <c r="B27" t="s">
+        <v>281</v>
+      </c>
+      <c r="C27" s="4">
+        <v>19.878044481772886</v>
+      </c>
+      <c r="D27">
+        <v>10.950879016795323</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>251</v>
+      </c>
+      <c r="B28" t="s">
+        <v>281</v>
+      </c>
+      <c r="C28" s="4">
+        <v>19.57091811996569</v>
+      </c>
+      <c r="D28">
+        <v>10.781682110424423</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" t="s">
+        <v>281</v>
+      </c>
+      <c r="C29" s="4">
+        <v>152.09138800997968</v>
+      </c>
+      <c r="D29">
+        <v>83.787637718638223</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>257</v>
+      </c>
+      <c r="B30" t="s">
+        <v>281</v>
+      </c>
+      <c r="C30" s="4">
+        <v>13.503840448583032</v>
+      </c>
+      <c r="D30">
+        <v>7.4393093923367068</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>249</v>
+      </c>
+      <c r="B31" t="s">
+        <v>281</v>
+      </c>
+      <c r="C31" s="4">
+        <v>22.241319028920557</v>
+      </c>
+      <c r="D31">
+        <v>12.252814610762648</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>264</v>
+      </c>
+      <c r="B32" t="s">
+        <v>281</v>
+      </c>
+      <c r="C32" s="4">
+        <v>9.2050387591427398</v>
+      </c>
+      <c r="D32">
+        <v>5.0710856336353984</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>260</v>
+      </c>
+      <c r="B33" t="s">
+        <v>281</v>
+      </c>
+      <c r="C33" s="4">
+        <v>11.21612700204764</v>
+      </c>
+      <c r="D33">
+        <v>6.1790006531608421</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>269</v>
+      </c>
+      <c r="B34" t="s">
+        <v>281</v>
+      </c>
+      <c r="C34" s="4">
+        <v>7.4172398877506351</v>
+      </c>
+      <c r="D34">
+        <v>4.0861814512883807</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>263</v>
+      </c>
+      <c r="B35" t="s">
+        <v>281</v>
+      </c>
+      <c r="C35" s="4">
+        <v>9.2375182416775985</v>
+      </c>
+      <c r="D35">
+        <v>5.0889786856452925</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>248</v>
+      </c>
+      <c r="B36" t="s">
+        <v>281</v>
+      </c>
+      <c r="C36" s="4">
+        <v>23.258711030032725</v>
+      </c>
+      <c r="D36">
+        <v>12.813299155761563</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>243</v>
+      </c>
+      <c r="B37" t="s">
+        <v>281</v>
+      </c>
+      <c r="C37" s="4">
+        <v>32.817886131633614</v>
+      </c>
+      <c r="D37">
+        <v>18.079479646200689</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>271</v>
+      </c>
+      <c r="B38" t="s">
+        <v>281</v>
+      </c>
+      <c r="C38" s="4">
+        <v>6.5201105020992474</v>
+      </c>
+      <c r="D38">
+        <v>3.5919499702345643</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>258</v>
+      </c>
+      <c r="B39" t="s">
+        <v>281</v>
+      </c>
+      <c r="C39" s="4">
+        <v>11.947041229777271</v>
+      </c>
+      <c r="D39">
+        <v>6.581663665956742</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>266</v>
+      </c>
+      <c r="B40" t="s">
+        <v>281</v>
+      </c>
+      <c r="C40" s="4">
+        <v>8.1507509368806765</v>
+      </c>
+      <c r="D40">
+        <v>4.4902750613953089</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>270</v>
+      </c>
+      <c r="B41" t="s">
+        <v>281</v>
+      </c>
+      <c r="C41" s="4">
+        <v>7.1583487427693369</v>
+      </c>
+      <c r="D41">
+        <v>3.9435574819231127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>253</v>
+      </c>
+      <c r="B42" t="s">
+        <v>281</v>
+      </c>
+      <c r="C42" s="4">
+        <v>18.585534199641756</v>
+      </c>
+      <c r="D42">
+        <v>10.238830920688054</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>265</v>
+      </c>
+      <c r="B43" t="s">
+        <v>281</v>
+      </c>
+      <c r="C43" s="4">
+        <v>9.1282599778526592</v>
+      </c>
+      <c r="D43">
+        <v>5.0287879546189522</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>268</v>
+      </c>
+      <c r="B44" t="s">
+        <v>281</v>
+      </c>
+      <c r="C44" s="4">
+        <v>7.8695390151097611</v>
+      </c>
+      <c r="D44">
+        <v>4.3353545038818391</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>274</v>
+      </c>
+      <c r="B45" t="s">
+        <v>281</v>
+      </c>
+      <c r="C45" s="4">
+        <v>5.9118451996786154</v>
+      </c>
+      <c r="D45">
+        <v>3.2568546471996158</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>275</v>
+      </c>
+      <c r="B46" t="s">
+        <v>281</v>
+      </c>
+      <c r="C46" s="4">
+        <v>5.3968420381768452</v>
+      </c>
+      <c r="D46">
+        <v>2.9731377393295118</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>208</v>
+      </c>
+      <c r="B47" t="s">
+        <v>281</v>
+      </c>
+      <c r="C47" s="4">
+        <v>10.078638813855594</v>
+      </c>
+      <c r="D47">
+        <v>5.5523547301503191</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>250</v>
+      </c>
+      <c r="B48" t="s">
+        <v>281</v>
+      </c>
+      <c r="C48" s="4">
+        <v>21.821826690577055</v>
+      </c>
+      <c r="D48">
+        <v>12.021714924378278</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>252</v>
+      </c>
+      <c r="B49" t="s">
+        <v>281</v>
+      </c>
+      <c r="C49" s="4">
+        <v>18.619256957899232</v>
+      </c>
+      <c r="D49">
+        <v>10.25740889731593</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>222</v>
+      </c>
+      <c r="B50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="4">
+        <v>15.148593348056401</v>
+      </c>
+      <c r="D50">
+        <v>8.3454090859545449</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>221</v>
+      </c>
+      <c r="B51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="4">
+        <v>32.529460956632199</v>
+      </c>
+      <c r="D51">
+        <v>17.920585284145371</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>226</v>
+      </c>
+      <c r="B52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="4">
+        <v>5.4134154799854022</v>
+      </c>
+      <c r="D52">
+        <v>2.9822681020421933</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="4">
+        <v>14.512352447105753</v>
+      </c>
+      <c r="D53">
+        <v>7.9949019151794651</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>16</v>
+      </c>
+      <c r="B54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="4">
+        <v>8.2520360743985695</v>
+      </c>
+      <c r="D54">
+        <v>4.5460733713435015</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="4">
+        <v>23.154898992492111</v>
+      </c>
+      <c r="D55">
+        <v>12.756108768415528</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="4">
+        <v>10.621721376068066</v>
+      </c>
+      <c r="D56">
+        <v>5.8515406707177275</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>224</v>
+      </c>
+      <c r="B57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="4">
+        <v>10.305522359368737</v>
+      </c>
+      <c r="D57">
+        <v>5.6773456094138313</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>225</v>
+      </c>
+      <c r="B58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="4">
+        <v>7.9347707371270566</v>
+      </c>
+      <c r="D58">
+        <v>4.3712908705865035</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="4">
+        <v>16.188862364205828</v>
+      </c>
+      <c r="D59">
+        <v>8.9184966525518945</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>223</v>
+      </c>
+      <c r="B60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="4">
+        <v>14.589887507409662</v>
+      </c>
+      <c r="D60">
+        <v>8.0376162307514321</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="4">
+        <v>6.1638243355723157</v>
+      </c>
+      <c r="D61">
+        <v>3.3956707683959819</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B62" t="s">
+        <v>280</v>
+      </c>
+      <c r="C62" s="4">
+        <v>161.71180487830082</v>
+      </c>
+      <c r="D62">
+        <v>89.087556496500099</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63" t="s">
+        <v>280</v>
+      </c>
+      <c r="C63" s="4">
+        <v>5.5739450352999507</v>
+      </c>
+      <c r="D63">
+        <v>3.0707043534290697</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>236</v>
+      </c>
+      <c r="B64" t="s">
+        <v>280</v>
+      </c>
+      <c r="C64" s="4">
+        <v>108.80000889927757</v>
+      </c>
+      <c r="D64">
+        <v>59.938276905192808</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>22</v>
+      </c>
+      <c r="B65" t="s">
+        <v>280</v>
+      </c>
+      <c r="C65" s="4">
+        <v>91.345476705502875</v>
+      </c>
+      <c r="D65">
+        <v>50.322518648687584</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>20</v>
+      </c>
+      <c r="B66" t="s">
+        <v>280</v>
+      </c>
+      <c r="C66" s="4">
+        <v>41.682841310647589</v>
+      </c>
+      <c r="D66">
+        <v>22.963212135264765</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>59</v>
+      </c>
+      <c r="B67" t="s">
+        <v>18</v>
+      </c>
+      <c r="C67" s="4">
+        <v>75.275410810144194</v>
+      </c>
+      <c r="D67">
+        <v>41.469467355167886</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>216</v>
+      </c>
+      <c r="B68" t="s">
+        <v>18</v>
+      </c>
+      <c r="C68" s="4">
+        <v>142.61342229141252</v>
+      </c>
+      <c r="D68">
+        <v>78.566195740050517</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>214</v>
+      </c>
+      <c r="B69" t="s">
+        <v>18</v>
+      </c>
+      <c r="C69" s="4">
+        <v>181.52008118513595</v>
+      </c>
+      <c r="D69">
+        <v>100.00000000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>220</v>
+      </c>
+      <c r="B70" t="s">
+        <v>18</v>
+      </c>
+      <c r="C70" s="4">
+        <v>23.419734466099186</v>
+      </c>
+      <c r="D70">
+        <v>12.902007487652527</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>219</v>
+      </c>
+      <c r="B71" t="s">
+        <v>18</v>
+      </c>
+      <c r="C71" s="4">
+        <v>51.382366299492524</v>
+      </c>
+      <c r="D71">
+        <v>28.30671183266309</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>19</v>
+      </c>
+      <c r="B72" t="s">
+        <v>18</v>
+      </c>
+      <c r="C72" s="4">
+        <v>18.677592962843985</v>
+      </c>
+      <c r="D72">
+        <v>10.289546391175495</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>218</v>
+      </c>
+      <c r="B73" t="s">
+        <v>18</v>
+      </c>
+      <c r="C73" s="4">
+        <v>60.385117911586953</v>
+      </c>
+      <c r="D73">
+        <v>33.266356822526411</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>217</v>
+      </c>
+      <c r="B74" t="s">
+        <v>18</v>
+      </c>
+      <c r="C74" s="4">
+        <v>69.116392588970911</v>
+      </c>
+      <c r="D74">
+        <v>38.076444290743638</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>215</v>
+      </c>
+      <c r="B75" t="s">
+        <v>18</v>
+      </c>
+      <c r="C75" s="4">
+        <v>169.79783159061446</v>
+      </c>
+      <c r="D75">
+        <v>93.542174773178004</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>58</v>
+      </c>
+      <c r="B76" t="s">
+        <v>18</v>
+      </c>
+      <c r="C76" s="4">
+        <v>37.965554962782676</v>
+      </c>
+      <c r="D76">
+        <v>20.915347059624139</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>60</v>
+      </c>
+      <c r="B77" t="s">
+        <v>18</v>
+      </c>
+      <c r="C77" s="4">
+        <v>56.726502788174585</v>
+      </c>
+      <c r="D77">
+        <v>31.250813914256735</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>235</v>
+      </c>
+      <c r="B78" t="s">
+        <v>25</v>
+      </c>
+      <c r="C78" s="4">
+        <v>6.7106435204124955</v>
+      </c>
+      <c r="D78">
+        <v>3.6969152264581555</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>29</v>
+      </c>
+      <c r="B79" t="s">
+        <v>25</v>
+      </c>
+      <c r="C79" s="4">
+        <v>13.866597952084515</v>
+      </c>
+      <c r="D79">
+        <v>7.6391536746513991</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>230</v>
+      </c>
+      <c r="B80" t="s">
+        <v>25</v>
+      </c>
+      <c r="C80" s="4">
+        <v>15.769112056651828</v>
+      </c>
+      <c r="D80">
+        <v>8.687254850094849</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>228</v>
+      </c>
+      <c r="B81" t="s">
+        <v>25</v>
+      </c>
+      <c r="C81" s="4">
+        <v>60.165231363412978</v>
+      </c>
+      <c r="D81">
+        <v>33.145220611734558</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>31</v>
+      </c>
+      <c r="B82" t="s">
+        <v>25</v>
+      </c>
+      <c r="C82" s="4">
+        <v>7.6577183717178885</v>
+      </c>
+      <c r="D82">
+        <v>4.218661826130206</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>30</v>
+      </c>
+      <c r="B83" t="s">
+        <v>25</v>
+      </c>
+      <c r="C83" s="4">
+        <v>8.8099651292537082</v>
+      </c>
+      <c r="D83">
+        <v>4.853438292740873</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>229</v>
+      </c>
+      <c r="B84" t="s">
+        <v>25</v>
+      </c>
+      <c r="C84" s="4">
+        <v>33.344559760482056</v>
+      </c>
+      <c r="D84">
+        <v>18.36962585228974</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>227</v>
+      </c>
+      <c r="B85" t="s">
+        <v>25</v>
+      </c>
+      <c r="C85" s="4">
+        <v>147.66925966908698</v>
+      </c>
+      <c r="D85">
+        <v>81.351472908650905</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>181</v>
+      </c>
+      <c r="B86" t="s">
+        <v>25</v>
+      </c>
+      <c r="C86" s="4">
+        <v>1.0498311190665592</v>
+      </c>
+      <c r="D86">
+        <v>0.57835536003083632</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>233</v>
+      </c>
+      <c r="B87" t="s">
+        <v>25</v>
+      </c>
+      <c r="C87" s="4">
+        <v>13.73585733727912</v>
+      </c>
+      <c r="D87">
+        <v>7.5671282469676981</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>26</v>
+      </c>
+      <c r="B88" t="s">
+        <v>25</v>
+      </c>
+      <c r="C88" s="4">
+        <v>14.697443594051864</v>
+      </c>
+      <c r="D88">
+        <v>8.0968692268607185</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>234</v>
+      </c>
+      <c r="B89" t="s">
+        <v>25</v>
+      </c>
+      <c r="C89" s="4">
+        <v>9.0237763341038395</v>
+      </c>
+      <c r="D89">
+        <v>4.9712275772399588</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>231</v>
+      </c>
+      <c r="B90" t="s">
+        <v>25</v>
+      </c>
+      <c r="C90" s="4">
+        <v>15.73888174359911</v>
+      </c>
+      <c r="D90">
+        <v>8.6706008728294428</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>232</v>
+      </c>
+      <c r="B91" t="s">
+        <v>25</v>
+      </c>
+      <c r="C91" s="4">
+        <v>14.877807157283712</v>
+      </c>
+      <c r="D91">
+        <v>8.1962320973785499</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D91">
+    <sortCondition ref="B2:B91"/>
+    <sortCondition ref="A2:A91"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2997DA0-656E-4C55-8758-F97DF9EF563B}">
+  <dimension ref="A1:E131"/>
+  <sheetViews>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="J50" sqref="J50"/>
+    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="1">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="7">
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <v>0.85302441689592035</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1.9823953972486371E-2</v>
+      </c>
+      <c r="E3">
+        <v>0.44776866895681827</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.43310864948899125</v>
+      </c>
+      <c r="E4">
+        <v>7.9453633138182598</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.74767148048199561</v>
+      </c>
+      <c r="E5">
+        <v>8.1253505905045973</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.14260773164253338</v>
+      </c>
+      <c r="E6">
+        <v>3.1991803170118445</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.28569543611019482</v>
+      </c>
+      <c r="E7">
+        <v>5.5678018954844424</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.28565932545890638</v>
+      </c>
+      <c r="E8">
+        <v>5.7009220153166229</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0.40261941992033656</v>
+      </c>
+      <c r="E9">
+        <v>8.2548985288362324</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0.99644744863670465</v>
+      </c>
+      <c r="E10">
+        <v>16.365117119878096</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0.25321755533851859</v>
+      </c>
+      <c r="E11">
+        <v>4.6993168506883221</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="7">
+        <v>7.7946052029400485</v>
+      </c>
+      <c r="E12">
+        <v>92.803020168635115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="7">
+        <v>9.6562088887645184E-2</v>
+      </c>
+      <c r="E13">
+        <v>2.0943067622746137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0.3730264495600889</v>
+      </c>
+      <c r="E14">
+        <v>7.6684062412551555</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0.3730264495600889</v>
+      </c>
+      <c r="E15">
+        <v>8.0267029117296698</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0.3730264495600889</v>
+      </c>
+      <c r="E16">
+        <v>8.0651765063948702</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0.54670294776651929</v>
+      </c>
+      <c r="E17">
+        <v>10.180656956325427</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="7">
+        <v>6.6408074145447751</v>
+      </c>
+      <c r="E18">
+        <v>42.197482626686615</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0.24058819280442281</v>
+      </c>
+      <c r="E19">
+        <v>4.8720286742170078</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0.1333591953823873</v>
+      </c>
+      <c r="E20">
+        <v>2.8928593050201532</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="7">
+        <v>0.22024230718792867</v>
+      </c>
+      <c r="E21">
+        <v>4.8027017166015655</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0.10198034937709889</v>
+      </c>
+      <c r="E22">
+        <v>1.9690514347412904</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="7">
+        <v>8.1265799627684779E-2</v>
+      </c>
+      <c r="E23">
+        <v>1.8044383016380738</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="7">
+        <v>0.15828801341134843</v>
+      </c>
+      <c r="E24">
+        <v>3.3966272694882744</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0.3040996719388962</v>
+      </c>
+      <c r="E25">
+        <v>5.8080060920798591</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0.15046740436074274</v>
+      </c>
+      <c r="E26">
+        <v>3.2575750694741341</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1.6979893893961351</v>
+      </c>
+      <c r="E27">
+        <v>15.701619427167914</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="7">
+        <v>0.63998609399639395</v>
+      </c>
+      <c r="E28">
+        <v>11.882245303206821</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="7">
+        <v>0.18390153580841556</v>
+      </c>
+      <c r="E29">
+        <v>3.6998637128459433</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="7">
+        <v>0.14659442166657088</v>
+      </c>
+      <c r="E30">
+        <v>3.1230570817069054</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="7">
+        <v>0.63490462095338274</v>
+      </c>
+      <c r="E31">
+        <v>10.851609722132343</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0.65076004236551199</v>
+      </c>
+      <c r="E32">
+        <v>11.695375439596358</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="7">
+        <v>0.84545234844968375</v>
+      </c>
+      <c r="E33">
+        <v>13.179217882948993</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="7">
+        <v>0.84545234844968375</v>
+      </c>
+      <c r="E34">
+        <v>9.6386665437862789</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="7">
+        <v>1.6771666056030201</v>
+      </c>
+      <c r="E35">
+        <v>34.428605129844279</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="7">
+        <v>0.64282876027311009</v>
+      </c>
+      <c r="E36">
+        <v>10.893083898803509</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" s="7">
+        <v>0.64284978806991633</v>
+      </c>
+      <c r="E37">
+        <v>8.3562469264454293</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="7">
+        <v>1.0074740199957521</v>
+      </c>
+      <c r="E38">
+        <v>17.374751000113999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="7">
+        <v>1.0074740199957521</v>
+      </c>
+      <c r="E39">
+        <v>19.945752934702409</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="7">
+        <v>0.5772808884934657</v>
+      </c>
+      <c r="E40">
+        <v>11.430265317049084</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="7">
+        <v>1.9755316982280093</v>
+      </c>
+      <c r="E41">
+        <v>25.515702833848902</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="7">
+        <v>1.9755316982280093</v>
+      </c>
+      <c r="E42">
+        <v>32.687756637396205</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="7">
+        <v>3.3215046512108657</v>
+      </c>
+      <c r="E43">
+        <v>31.075389839185668</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="7">
+        <v>3.3215046512108657</v>
+      </c>
+      <c r="E44">
+        <v>44.005412238639401</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="7">
+        <v>0.24625582169607965</v>
+      </c>
+      <c r="E45">
+        <v>4.524162225832737</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="7">
+        <v>0.35927209346297023</v>
+      </c>
+      <c r="E46">
+        <v>6.1535340976422264</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="7">
+        <v>0.15394266572494705</v>
+      </c>
+      <c r="E47">
+        <v>3.3504640978608058</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="7">
+        <v>0.15394266572494705</v>
+      </c>
+      <c r="E48">
+        <v>3.4699977098709858</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="7">
+        <v>2.693790092075822</v>
+      </c>
+      <c r="E49">
+        <v>40.088503883169231</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="7">
+        <v>2.693790092075822</v>
+      </c>
+      <c r="E50">
+        <v>48.788222014016043</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="7">
+        <v>0.82520308967275968</v>
+      </c>
+      <c r="E51">
+        <v>14.133898630521994</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="7">
+        <v>0.98986946584328783</v>
+      </c>
+      <c r="E52">
+        <v>16.95426842527468</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="7">
+        <v>4.3071415909623241</v>
+      </c>
+      <c r="E53">
+        <v>55.553009471737958</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="7">
+        <v>1.8508536010592973</v>
+      </c>
+      <c r="E54">
+        <v>28.652219022265871</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="7">
+        <v>1.8508536010592973</v>
+      </c>
+      <c r="E55">
+        <v>34.346969499508837</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="7">
+        <v>3.8569895727647103</v>
+      </c>
+      <c r="E56">
+        <v>39.804456475248301</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="7">
+        <v>3.8569895727647103</v>
+      </c>
+      <c r="E57">
+        <v>54.802284448043352</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="7">
+        <v>0.80559566940474192</v>
+      </c>
+      <c r="E58">
+        <v>15.07333325610513</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="7">
+        <v>4.1606469461994786</v>
+      </c>
+      <c r="E59">
+        <v>31.027672297957306</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="7">
+        <v>4.1606469461994786</v>
+      </c>
+      <c r="E60">
+        <v>46.553912837122766</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" s="7">
+        <v>1.5110011222466067</v>
+      </c>
+      <c r="E61">
+        <v>25.880097832531767</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="7">
+        <v>0.51764702061006906</v>
+      </c>
+      <c r="E62">
+        <v>10.201697695607654</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="7">
+        <v>1.992136584347924</v>
+      </c>
+      <c r="E63">
+        <v>18.638065416812626</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="7">
+        <v>1.992136584347924</v>
+      </c>
+      <c r="E64">
+        <v>26.393096152355813</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D65" s="7">
+        <v>8.0432463434988583E-2</v>
+      </c>
+      <c r="E65">
+        <v>1.800380071926114</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D66" s="7">
+        <v>2.7883384327783958</v>
+      </c>
+      <c r="E66">
+        <v>31.433202094573929</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D67" s="7">
+        <v>4.6848385764656326</v>
+      </c>
+      <c r="E67">
+        <v>48.015173793657745</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D68" s="7">
+        <v>2.2686603154679581</v>
+      </c>
+      <c r="E68">
+        <v>24.687024242391075</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D69" s="7">
+        <v>1.7935493990486948</v>
+      </c>
+      <c r="E69">
+        <v>32.867624817873534</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D70" s="7">
+        <v>0.60297644363353464</v>
+      </c>
+      <c r="E70">
+        <v>10.74840655888738</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D71" s="7">
+        <v>0.69278144587682711</v>
+      </c>
+      <c r="E71">
+        <v>12.23069226143393</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D72" s="7">
+        <v>0.69278144587682711</v>
+      </c>
+      <c r="E72">
+        <v>12.052205866835061</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D73" s="7">
+        <v>0.69278144587682711</v>
+      </c>
+      <c r="E73">
+        <v>12.186190007458295</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D74" s="7">
+        <v>1.956211335556812</v>
+      </c>
+      <c r="E74">
+        <v>35.848480268040262</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D75" s="7">
+        <v>0.99598061767959667</v>
+      </c>
+      <c r="E75">
+        <v>15.897671001172235</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D76" s="7">
+        <v>4.5065318935218048</v>
+      </c>
+      <c r="E76">
+        <v>24.954556572263165</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D77" s="7">
+        <v>4.2010043075203267</v>
+      </c>
+      <c r="E77">
+        <v>23.548931871512444</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D78" s="7">
+        <v>75.263533095005357</v>
+      </c>
+      <c r="E78">
+        <v>43.369960067891832</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D79" s="7">
+        <v>1.9794647958662492</v>
+      </c>
+      <c r="E79">
+        <v>25.669609802410719</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D80" s="7">
+        <v>1.9794647958662492</v>
+      </c>
+      <c r="E80">
+        <v>26.486063059888057</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D81" s="7">
+        <v>0.88695696069314278</v>
+      </c>
+      <c r="E81">
+        <v>11.987920183065777</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D82" s="7">
+        <v>3.7053889234877707E-2</v>
+      </c>
+      <c r="E82">
+        <v>0.55069082210508458</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D83" s="7">
+        <v>0.68068790006683055</v>
+      </c>
+      <c r="E83">
+        <v>9.2000317683993149</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D84" s="7">
+        <v>2.5181766061696966</v>
+      </c>
+      <c r="E84">
+        <v>27.895616133974929</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D85" s="7">
+        <v>2.5181766061696966</v>
+      </c>
+      <c r="E85">
+        <v>35.729184709847949</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D86" s="7">
+        <v>4.4708663148198813</v>
+      </c>
+      <c r="E86">
+        <v>26.090750599686523</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D87" s="7">
+        <v>2.5300230250590467</v>
+      </c>
+      <c r="E87">
+        <v>27.175471403347604</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D88" s="7">
+        <v>2.5300230250590467</v>
+      </c>
+      <c r="E88">
+        <v>27.99023337387959</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D89" s="7">
+        <v>0.55580833852316558</v>
+      </c>
+      <c r="E89">
+        <v>8.2603623315762711</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D90" s="7">
+        <v>0.55580833852316558</v>
+      </c>
+      <c r="E90">
+        <v>8.4742173048096578</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D91" s="7">
+        <v>0.96340112010682044</v>
+      </c>
+      <c r="E91">
+        <v>13.062114152926691</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D92" s="7">
+        <v>7.2677683738731655</v>
+      </c>
+      <c r="E92">
+        <v>38.102360398957863</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D93" s="7">
+        <v>7.6335625213614318</v>
+      </c>
+      <c r="E93">
+        <v>40.020090811161374</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D94" s="7">
+        <v>3.7801966599599179</v>
+      </c>
+      <c r="E94">
+        <v>67.43512781098751</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D95" s="7">
+        <v>0.37804736187410498</v>
+      </c>
+      <c r="E95">
+        <v>8.1721427793062755</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D96" s="7">
+        <v>0.46962020894017281</v>
+      </c>
+      <c r="E96">
+        <v>9.4499523321769683</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D97" s="7">
+        <v>0.46962020894017281</v>
+      </c>
+      <c r="E97">
+        <v>9.9728430083517399</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D98" s="7">
+        <v>0.59506286197978941</v>
+      </c>
+      <c r="E98">
+        <v>11.876454054376401</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D99" s="7">
+        <v>1.293310010346282</v>
+      </c>
+      <c r="E99">
+        <v>21.9905730891623</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D100" s="7">
+        <v>0.92132172661719236</v>
+      </c>
+      <c r="E100">
+        <v>18.678545984193807</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D101" s="7">
+        <v>0.68254791819926153</v>
+      </c>
+      <c r="E101">
+        <v>13.738744323372911</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D102" s="7">
+        <v>3.1514364769200398</v>
+      </c>
+      <c r="E102">
+        <v>38.874936191383114</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D103" s="7">
+        <v>3.1514364769200398</v>
+      </c>
+      <c r="E103">
+        <v>48.613829196826202</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D104" s="7">
+        <v>0.97564428078109067</v>
+      </c>
+      <c r="E104">
+        <v>16.949750952714307</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D105" s="7">
+        <v>0.97564428078109067</v>
+      </c>
+      <c r="E105">
+        <v>18.847475305497245</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D106" s="7">
+        <v>0.66842677647044835</v>
+      </c>
+      <c r="E106">
+        <v>13.340674417244728</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D107" s="7">
+        <v>0.95905702102810475</v>
+      </c>
+      <c r="E107">
+        <v>17.700848849180694</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D108" s="7">
+        <v>1.8899800950276722</v>
+      </c>
+      <c r="E108">
+        <v>23.672776227613785</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D109" s="7">
+        <v>0.7730735642359764</v>
+      </c>
+      <c r="E109">
+        <v>13.367304487210445</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D110" s="7">
+        <v>1.8300229937733192</v>
+      </c>
+      <c r="E110">
+        <v>28.35708175238344</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D111" s="7">
+        <v>0.42102733580348228</v>
+      </c>
+      <c r="E111">
+        <v>8.7001200109112329</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D112" s="7">
+        <v>0.42102733580348228</v>
+      </c>
+      <c r="E112">
+        <v>8.8408304934539217</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D113" s="7">
+        <v>0.23624108698375362</v>
+      </c>
+      <c r="E113">
+        <v>5.1671648706093549</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D114" s="7">
+        <v>3.3894990278617101</v>
+      </c>
+      <c r="E114">
+        <v>39.478218417810311</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D115" s="7">
+        <v>1.0557473487424631</v>
+      </c>
+      <c r="E115">
+        <v>18.379965310671338</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D116" s="7">
+        <v>1.0557473487424631</v>
+      </c>
+      <c r="E116">
+        <v>20.324449360346051</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D117" s="7">
+        <v>0.37077722029960292</v>
+      </c>
+      <c r="E117">
+        <v>7.5876160428484543</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D118" s="7">
+        <v>0.54858039934142799</v>
+      </c>
+      <c r="E118">
+        <v>11.084692717446947</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D119" s="7">
+        <v>0.88586456934060087</v>
+      </c>
+      <c r="E119">
+        <v>16.605843675259344</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D120" s="7">
+        <v>0.67999792597684838</v>
+      </c>
+      <c r="E120">
+        <v>12.950389661994839</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D121" s="7">
+        <v>0.67999792597684838</v>
+      </c>
+      <c r="E121">
+        <v>14.0610937195607</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D122" s="7">
+        <v>1.5361955783169783</v>
+      </c>
+      <c r="E122">
+        <v>24.763616068684183</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D123" s="7">
+        <v>1.5361955783169783</v>
+      </c>
+      <c r="E123">
+        <v>28.525774595931455</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D124" s="7">
+        <v>0.26084953354456125</v>
+      </c>
+      <c r="E124">
+        <v>5.7054112112978288</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D125" s="7">
+        <v>0.9704393507607405</v>
+      </c>
+      <c r="E125">
+        <v>19.2182777047313</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D126" s="7">
+        <v>0.9704393507607405</v>
+      </c>
+      <c r="E126">
+        <v>20.56014013389817</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D127" s="7">
+        <v>1.3651906905170705</v>
+      </c>
+      <c r="E127">
+        <v>23.259804539868998</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D128" s="7">
+        <v>13.138889035338222</v>
+      </c>
+      <c r="E128">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D129" s="7">
+        <v>3.9631738590593777</v>
+      </c>
+      <c r="E129">
+        <v>56.630352581117357</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D130" s="7">
+        <v>0.37271272349816453</v>
+      </c>
+      <c r="E130">
+        <v>7.7017455834296173</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D131" s="7">
+        <v>0.7929720481462057</v>
+      </c>
+      <c r="E131">
+        <v>15.613186924104385</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E131">
+    <sortCondition ref="C2:C131"/>
+    <sortCondition ref="B2:B131"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B720F54-CAA8-45CB-9F68-5EAE124CF03F}">
+  <dimension ref="A1:C277"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="A1:XFD1048576"/>
+    </sheetView>
+    <sheetView topLeftCell="A250" workbookViewId="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2">
+        <v>387.07973472331503</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3">
+        <v>387.07973472331503</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4">
+        <v>389.67397224319802</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6">
+        <v>261.65260007472898</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7">
+        <v>288.45621802788497</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8">
+        <v>328.86156753837099</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9">
+        <v>349.89365677442999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10">
+        <v>326.65462400099602</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>203</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11">
+        <v>277.98217187064</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>204</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12">
+        <v>303.86610332869299</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>209</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13">
+        <v>397.20879582643198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>199</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14">
+        <v>440.897054175699</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15">
+        <v>417.46477543083898</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16">
+        <v>417.46477543083898</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>197</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>137</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18">
+        <v>261.02375495606998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19">
+        <v>265.73030219683397</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>192</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20">
+        <v>473.03378982991501</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>201</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21">
+        <v>417.24977076402303</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22">
+        <v>348.49573809991398</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23">
+        <v>302.40505926380399</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>103</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24">
+        <v>357.478020686729</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25">
+        <v>357.84967670364898</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>198</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26">
+        <v>288.00868984728999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>207</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27">
+        <v>257.91523053672302</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>139</v>
+      </c>
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28">
+        <v>272.43233358153702</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>206</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29">
+        <v>313.54713594439602</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30">
+        <v>473.05952851471801</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31">
+        <v>473.05952851471801</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>105</v>
+      </c>
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32">
+        <v>502.16669718480398</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33">
+        <v>395.72985260991402</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34">
+        <v>395.72985260991402</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>395.72985260991402</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>107</v>
+      </c>
+      <c r="B36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36">
+        <v>305.142992672589</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37">
+        <v>327.553581386659</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>94</v>
+      </c>
+      <c r="B38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38">
+        <v>502.23851237170697</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>94</v>
+      </c>
+      <c r="B39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39">
+        <v>502.23851237170697</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>97</v>
+      </c>
+      <c r="B40" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40">
+        <v>327.72104039878798</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>97</v>
+      </c>
+      <c r="B41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41">
+        <v>327.84141222414002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>97</v>
+      </c>
+      <c r="B42" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42">
+        <v>327.72104039878798</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>184</v>
+      </c>
+      <c r="B43" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43">
+        <v>380.33163109269799</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>189</v>
+      </c>
+      <c r="B44" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44">
+        <v>393.43564568376598</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>195</v>
+      </c>
+      <c r="B45" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45">
+        <v>381.36818632917698</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>101</v>
+      </c>
+      <c r="B46" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46">
+        <v>335.15170982511302</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>35</v>
+      </c>
+      <c r="B47" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47">
+        <v>388.80501134117202</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>35</v>
+      </c>
+      <c r="B48" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48">
+        <v>388.80501134117202</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>106</v>
+      </c>
+      <c r="B49" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49">
+        <v>400.37688556713402</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>106</v>
+      </c>
+      <c r="B50" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50">
+        <v>397.934405902462</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>93</v>
+      </c>
+      <c r="B51" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51">
+        <v>475.19257860025601</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>93</v>
+      </c>
+      <c r="B52" t="s">
+        <v>33</v>
+      </c>
+      <c r="C52">
+        <v>475.19257860025601</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>202</v>
+      </c>
+      <c r="B53" t="s">
+        <v>33</v>
+      </c>
+      <c r="C53">
+        <v>302.32681406839703</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>200</v>
+      </c>
+      <c r="B54" t="s">
+        <v>33</v>
+      </c>
+      <c r="C54">
+        <v>370.579937888789</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>187</v>
+      </c>
+      <c r="B55" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>136</v>
+      </c>
+      <c r="B56" t="s">
+        <v>33</v>
+      </c>
+      <c r="C56">
+        <v>363.09266399007601</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>95</v>
+      </c>
+      <c r="B57" t="s">
+        <v>33</v>
+      </c>
+      <c r="C57">
+        <v>426.46346483629799</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>95</v>
+      </c>
+      <c r="B58" t="s">
+        <v>33</v>
+      </c>
+      <c r="C58">
+        <v>426.46346483629799</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>36</v>
+      </c>
+      <c r="B59" t="s">
+        <v>33</v>
+      </c>
+      <c r="C59">
+        <v>395.56730065157501</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>36</v>
+      </c>
+      <c r="B60" t="s">
+        <v>33</v>
+      </c>
+      <c r="C60">
+        <v>397.02455896414301</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>191</v>
+      </c>
+      <c r="B61" t="s">
+        <v>33</v>
+      </c>
+      <c r="C61">
+        <v>510.51550983207602</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>138</v>
+      </c>
+      <c r="B62" t="s">
+        <v>33</v>
+      </c>
+      <c r="C62">
+        <v>380.57616774933399</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>102</v>
+      </c>
+      <c r="B63" t="s">
+        <v>33</v>
+      </c>
+      <c r="C63">
+        <v>355.33484751139099</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>205</v>
+      </c>
+      <c r="B64" t="s">
+        <v>33</v>
+      </c>
+      <c r="C64">
+        <v>282.30567172127098</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>190</v>
+      </c>
+      <c r="B65" t="s">
+        <v>33</v>
+      </c>
+      <c r="C65">
+        <v>375.00083893830902</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>183</v>
+      </c>
+      <c r="B66" t="s">
+        <v>33</v>
+      </c>
+      <c r="C66">
+        <v>383.56215204222502</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>212</v>
+      </c>
+      <c r="B67" t="s">
+        <v>33</v>
+      </c>
+      <c r="C67">
+        <v>345.81950238753302</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>182</v>
+      </c>
+      <c r="B68" t="s">
+        <v>33</v>
+      </c>
+      <c r="C68">
+        <v>300.12270282214502</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>210</v>
+      </c>
+      <c r="B69" t="s">
+        <v>33</v>
+      </c>
+      <c r="C69">
+        <v>444.43482957545399</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>208</v>
+      </c>
+      <c r="B70" t="s">
+        <v>33</v>
+      </c>
+      <c r="C70">
+        <v>387.92459950866402</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>196</v>
+      </c>
+      <c r="B71" t="s">
+        <v>33</v>
+      </c>
+      <c r="C71">
+        <v>402.66737287857302</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>186</v>
+      </c>
+      <c r="B72" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>193</v>
+      </c>
+      <c r="B73" t="s">
+        <v>33</v>
+      </c>
+      <c r="C73">
+        <v>443.68851858051801</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>194</v>
+      </c>
+      <c r="B74" t="s">
+        <v>33</v>
+      </c>
+      <c r="C74">
+        <v>401.542679117555</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>111</v>
+      </c>
+      <c r="B75" t="s">
+        <v>33</v>
+      </c>
+      <c r="C75">
+        <v>427.38170750737902</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>111</v>
+      </c>
+      <c r="B76" t="s">
+        <v>33</v>
+      </c>
+      <c r="C76">
+        <v>427.38170750737902</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>111</v>
+      </c>
+      <c r="B77" t="s">
+        <v>33</v>
+      </c>
+      <c r="C77">
+        <v>427.38170750737902</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>211</v>
+      </c>
+      <c r="B78" t="s">
+        <v>33</v>
+      </c>
+      <c r="C78">
+        <v>467.96936117060301</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>110</v>
+      </c>
+      <c r="B79" t="s">
+        <v>33</v>
+      </c>
+      <c r="C79">
+        <v>432.48340618880297</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>110</v>
+      </c>
+      <c r="B80" t="s">
+        <v>33</v>
+      </c>
+      <c r="C80">
+        <v>432.48340618880297</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>112</v>
+      </c>
+      <c r="B81" t="s">
+        <v>33</v>
+      </c>
+      <c r="C81">
+        <v>433.07284257943797</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>112</v>
+      </c>
+      <c r="B82" t="s">
+        <v>33</v>
+      </c>
+      <c r="C82">
+        <v>433.07284257943797</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>14</v>
+      </c>
+      <c r="B83" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83">
+        <v>622.72428724208601</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>14</v>
+      </c>
+      <c r="B84" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84">
+        <v>635.105408568352</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>14</v>
+      </c>
+      <c r="B85" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85">
+        <v>622.72428724208601</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>15</v>
+      </c>
+      <c r="B86" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86">
+        <v>494.23540895590901</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>15</v>
+      </c>
+      <c r="B87" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87">
+        <v>494.23540895590901</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>11</v>
+      </c>
+      <c r="B88" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88">
+        <v>550.68698806355098</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>11</v>
+      </c>
+      <c r="B89" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89">
+        <v>550.68698806355098</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>11</v>
+      </c>
+      <c r="B90" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90">
+        <v>550.68698806355098</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>39</v>
+      </c>
+      <c r="B91" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91">
+        <v>460.11361144430799</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>39</v>
+      </c>
+      <c r="B92" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92">
+        <v>460.11361144430799</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>49</v>
+      </c>
+      <c r="B93" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93">
+        <v>1593.7486825265601</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>49</v>
+      </c>
+      <c r="B94" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94">
+        <v>1593.7486825265601</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>114</v>
+      </c>
+      <c r="B95" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95">
+        <v>551.07875401816898</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>140</v>
+      </c>
+      <c r="B96" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96">
+        <v>626.21348769090696</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>42</v>
+      </c>
+      <c r="B97" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97">
+        <v>615.94324067047205</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>16</v>
+      </c>
+      <c r="B98" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98">
+        <v>511.57119349099202</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>41</v>
+      </c>
+      <c r="B99" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>41</v>
+      </c>
+      <c r="B100" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>41</v>
+      </c>
+      <c r="B101" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>12</v>
+      </c>
+      <c r="B102" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102">
+        <v>447.979106549476</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>12</v>
+      </c>
+      <c r="B103" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103">
+        <v>447.700044129719</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>12</v>
+      </c>
+      <c r="B104" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104">
+        <v>445.07043250640402</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>118</v>
+      </c>
+      <c r="B105" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>115</v>
+      </c>
+      <c r="B106" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106">
+        <v>546.17891018584703</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>117</v>
+      </c>
+      <c r="B107" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107">
+        <v>595.96753018017296</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>116</v>
+      </c>
+      <c r="B108" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108">
+        <v>554.90277846183005</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>43</v>
+      </c>
+      <c r="B109" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109">
+        <v>548.17545757179096</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>119</v>
+      </c>
+      <c r="B110" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110">
+        <v>570.09088636719503</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>113</v>
+      </c>
+      <c r="B111" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>7</v>
+      </c>
+      <c r="B112" t="s">
+        <v>8</v>
+      </c>
+      <c r="C112">
+        <v>517.061553346094</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>7</v>
+      </c>
+      <c r="B113" t="s">
+        <v>8</v>
+      </c>
+      <c r="C113">
+        <v>517.061553346094</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>7</v>
+      </c>
+      <c r="B114" t="s">
+        <v>8</v>
+      </c>
+      <c r="C114">
+        <v>516.52678097186094</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>10</v>
+      </c>
+      <c r="B115" t="s">
+        <v>8</v>
+      </c>
+      <c r="C115">
+        <v>490.72574303183598</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>10</v>
+      </c>
+      <c r="B116" t="s">
+        <v>8</v>
+      </c>
+      <c r="C116">
+        <v>490.72574303183598</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>10</v>
+      </c>
+      <c r="B117" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117">
+        <v>490.14304114488698</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>9</v>
+      </c>
+      <c r="B118" t="s">
+        <v>8</v>
+      </c>
+      <c r="C118">
+        <v>485.93965587678701</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>9</v>
+      </c>
+      <c r="B119" t="s">
+        <v>8</v>
+      </c>
+      <c r="C119">
+        <v>485.93965587678701</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>9</v>
+      </c>
+      <c r="B120" t="s">
+        <v>8</v>
+      </c>
+      <c r="C120">
+        <v>485.32575141370302</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>44</v>
+      </c>
+      <c r="B121" t="s">
+        <v>8</v>
+      </c>
+      <c r="C121">
+        <v>609.47067440109504</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>46</v>
+      </c>
+      <c r="B122" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122">
+        <v>536.16514810571596</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>46</v>
+      </c>
+      <c r="B123" t="s">
+        <v>8</v>
+      </c>
+      <c r="C123">
+        <v>539.50066166004501</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>46</v>
+      </c>
+      <c r="B124" t="s">
+        <v>8</v>
+      </c>
+      <c r="C124">
+        <v>536.16514810571596</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>47</v>
+      </c>
+      <c r="B125" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>47</v>
+      </c>
+      <c r="B126" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>45</v>
+      </c>
+      <c r="B127" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127">
+        <v>607.74292984079602</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>48</v>
+      </c>
+      <c r="B128" t="s">
+        <v>8</v>
+      </c>
+      <c r="C128">
+        <v>496.75326983984002</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>48</v>
+      </c>
+      <c r="B129" t="s">
+        <v>8</v>
+      </c>
+      <c r="C129">
+        <v>489.26404306454299</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>40</v>
+      </c>
+      <c r="B130" t="s">
+        <v>8</v>
+      </c>
+      <c r="C130">
+        <v>526.977704044848</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>40</v>
+      </c>
+      <c r="B131" t="s">
+        <v>8</v>
+      </c>
+      <c r="C131">
+        <v>526.36662430213505</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>13</v>
+      </c>
+      <c r="B132" t="s">
+        <v>8</v>
+      </c>
+      <c r="C132">
+        <v>742.470654616405</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>13</v>
+      </c>
+      <c r="B133" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133">
+        <v>741.80935364542904</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>13</v>
+      </c>
+      <c r="B134" t="s">
+        <v>8</v>
+      </c>
+      <c r="C134">
+        <v>737.21302675808602</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>170</v>
+      </c>
+      <c r="B135" t="s">
+        <v>21</v>
+      </c>
+      <c r="C135">
+        <v>555.37690395124002</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>165</v>
+      </c>
+      <c r="B136" t="s">
+        <v>21</v>
+      </c>
+      <c r="C136">
+        <v>450.97641565335499</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>164</v>
+      </c>
+      <c r="B137" t="s">
+        <v>21</v>
+      </c>
+      <c r="C137">
+        <v>464.49742569203102</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>69</v>
+      </c>
+      <c r="B138" t="s">
+        <v>21</v>
+      </c>
+      <c r="C138">
+        <v>559.92951189622897</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>171</v>
+      </c>
+      <c r="B139" t="s">
+        <v>21</v>
+      </c>
+      <c r="C139">
+        <v>540.28458606712104</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>38</v>
+      </c>
+      <c r="B140" t="s">
+        <v>21</v>
+      </c>
+      <c r="C140">
+        <v>448.31797618143901</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>163</v>
+      </c>
+      <c r="B141" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>124</v>
+      </c>
+      <c r="B142" t="s">
+        <v>21</v>
+      </c>
+      <c r="C142">
+        <v>482.71857455215797</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>64</v>
+      </c>
+      <c r="B143" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>125</v>
+      </c>
+      <c r="B144" t="s">
+        <v>21</v>
+      </c>
+      <c r="C144">
+        <v>400.181720079488</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>169</v>
+      </c>
+      <c r="B145" t="s">
+        <v>21</v>
+      </c>
+      <c r="C145">
+        <v>470.57454069502899</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>166</v>
+      </c>
+      <c r="B146" t="s">
+        <v>21</v>
+      </c>
+      <c r="C146">
+        <v>511.29454943850499</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>65</v>
+      </c>
+      <c r="B147" t="s">
+        <v>21</v>
+      </c>
+      <c r="C147">
+        <v>423.995063063141</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>66</v>
+      </c>
+      <c r="B148" t="s">
+        <v>21</v>
+      </c>
+      <c r="C148">
+        <v>543.03689770372</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>68</v>
+      </c>
+      <c r="B149" t="s">
+        <v>21</v>
+      </c>
+      <c r="C149">
+        <v>547.619043906863</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>23</v>
+      </c>
+      <c r="B150" t="s">
+        <v>21</v>
+      </c>
+      <c r="C150">
+        <v>496.74196928675798</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>23</v>
+      </c>
+      <c r="B151" t="s">
+        <v>21</v>
+      </c>
+      <c r="C151">
+        <v>496.74196928675798</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>23</v>
+      </c>
+      <c r="B152" t="s">
+        <v>21</v>
+      </c>
+      <c r="C152">
+        <v>460.05292617628299</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>63</v>
+      </c>
+      <c r="B153" t="s">
+        <v>21</v>
+      </c>
+      <c r="C153">
+        <v>398.61878928468201</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>168</v>
+      </c>
+      <c r="B154" t="s">
+        <v>21</v>
+      </c>
+      <c r="C154">
+        <v>529.02688202037598</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>167</v>
+      </c>
+      <c r="B155" t="s">
+        <v>21</v>
+      </c>
+      <c r="C155">
+        <v>420.30144914342497</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>70</v>
+      </c>
+      <c r="B156" t="s">
+        <v>21</v>
+      </c>
+      <c r="C156">
+        <v>408.84625314033599</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>22</v>
+      </c>
+      <c r="B157" t="s">
+        <v>21</v>
+      </c>
+      <c r="C157">
+        <v>428.46503664053103</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>20</v>
+      </c>
+      <c r="B158" t="s">
+        <v>21</v>
+      </c>
+      <c r="C158">
+        <v>443.30814790342203</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>67</v>
+      </c>
+      <c r="B159" t="s">
+        <v>21</v>
+      </c>
+      <c r="C159">
+        <v>428.32529647344199</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>149</v>
+      </c>
+      <c r="B160" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>141</v>
+      </c>
+      <c r="B161" t="s">
+        <v>18</v>
+      </c>
+      <c r="C161">
+        <v>627.55382594119396</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>148</v>
+      </c>
+      <c r="B162" t="s">
+        <v>18</v>
+      </c>
+      <c r="C162">
+        <v>511.50797895517502</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>61</v>
+      </c>
+      <c r="B163" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>54</v>
+      </c>
+      <c r="B164" t="s">
+        <v>18</v>
+      </c>
+      <c r="C164">
+        <v>637.83415431201001</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>54</v>
+      </c>
+      <c r="B165" t="s">
+        <v>18</v>
+      </c>
+      <c r="C165">
+        <v>637.83415431201001</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>59</v>
+      </c>
+      <c r="B166" t="s">
+        <v>18</v>
+      </c>
+      <c r="C166">
+        <v>818.66057495333598</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>59</v>
+      </c>
+      <c r="B167" t="s">
+        <v>18</v>
+      </c>
+      <c r="C167">
+        <v>818.66057495333598</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>121</v>
+      </c>
+      <c r="B168" t="s">
+        <v>18</v>
+      </c>
+      <c r="C168">
+        <v>631.46355003496501</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>51</v>
+      </c>
+      <c r="B169" t="s">
+        <v>18</v>
+      </c>
+      <c r="C169">
+        <v>23100</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>17</v>
+      </c>
+      <c r="B170" t="s">
+        <v>18</v>
+      </c>
+      <c r="C170">
+        <v>591.06221200358095</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>17</v>
+      </c>
+      <c r="B171" t="s">
+        <v>18</v>
+      </c>
+      <c r="C171">
+        <v>591.559659752485</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>147</v>
+      </c>
+      <c r="B172" t="s">
+        <v>18</v>
+      </c>
+      <c r="C172">
+        <v>931.39470486630603</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>142</v>
+      </c>
+      <c r="B173" t="s">
+        <v>18</v>
+      </c>
+      <c r="C173">
+        <v>908.73138428366599</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>152</v>
+      </c>
+      <c r="B174" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>156</v>
+      </c>
+      <c r="B175" t="s">
+        <v>18</v>
+      </c>
+      <c r="C175">
+        <v>1857.02860443943</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>62</v>
+      </c>
+      <c r="B176" t="s">
+        <v>18</v>
+      </c>
+      <c r="C176">
+        <v>589.55965079377597</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>159</v>
+      </c>
+      <c r="B177" t="s">
+        <v>18</v>
+      </c>
+      <c r="C177">
+        <v>646.82317071537102</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>162</v>
+      </c>
+      <c r="B178" t="s">
+        <v>18</v>
+      </c>
+      <c r="C178">
+        <v>904.17704597701697</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>153</v>
+      </c>
+      <c r="B179" t="s">
+        <v>18</v>
+      </c>
+      <c r="C179">
+        <v>674.99802613132204</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>154</v>
+      </c>
+      <c r="B180" t="s">
+        <v>18</v>
+      </c>
+      <c r="C180">
+        <v>591.54245302587299</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>120</v>
+      </c>
+      <c r="B181" t="s">
+        <v>18</v>
+      </c>
+      <c r="C181">
+        <v>845.13018249554796</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>123</v>
+      </c>
+      <c r="B182" t="s">
+        <v>18</v>
+      </c>
+      <c r="C182">
+        <v>626.304960750438</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>19</v>
+      </c>
+      <c r="B183" t="s">
+        <v>18</v>
+      </c>
+      <c r="C183">
+        <v>483.08848446583602</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>19</v>
+      </c>
+      <c r="B184" t="s">
+        <v>18</v>
+      </c>
+      <c r="C184">
+        <v>483.08848446583602</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>19</v>
+      </c>
+      <c r="B185" t="s">
+        <v>18</v>
+      </c>
+      <c r="C185">
+        <v>483.08848446583602</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>53</v>
+      </c>
+      <c r="B186" t="s">
+        <v>18</v>
+      </c>
+      <c r="C186">
+        <v>841.92541601004598</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>53</v>
+      </c>
+      <c r="B187" t="s">
+        <v>18</v>
+      </c>
+      <c r="C187">
+        <v>841.92541601004598</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>146</v>
+      </c>
+      <c r="B188" t="s">
+        <v>18</v>
+      </c>
+      <c r="C188">
+        <v>582.09662426303203</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>58</v>
+      </c>
+      <c r="B189" t="s">
+        <v>18</v>
+      </c>
+      <c r="C189">
+        <v>432.39600141445197</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>58</v>
+      </c>
+      <c r="B190" t="s">
+        <v>18</v>
+      </c>
+      <c r="C190">
+        <v>432.39600141445197</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>58</v>
+      </c>
+      <c r="B191" t="s">
+        <v>18</v>
+      </c>
+      <c r="C191">
+        <v>432.39600141445197</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>60</v>
+      </c>
+      <c r="B192" t="s">
+        <v>18</v>
+      </c>
+      <c r="C192">
+        <v>529.72562617971005</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>60</v>
+      </c>
+      <c r="B193" t="s">
+        <v>18</v>
+      </c>
+      <c r="C193">
+        <v>529.72562617971005</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>55</v>
+      </c>
+      <c r="B194" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>122</v>
+      </c>
+      <c r="B195" t="s">
+        <v>18</v>
+      </c>
+      <c r="C195">
+        <v>548.10879256975204</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>160</v>
+      </c>
+      <c r="B196" t="s">
+        <v>18</v>
+      </c>
+      <c r="C196">
+        <v>550.79357733995505</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>155</v>
+      </c>
+      <c r="B197" t="s">
+        <v>18</v>
+      </c>
+      <c r="C197">
+        <v>550.19409452214404</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>157</v>
+      </c>
+      <c r="B198" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>50</v>
+      </c>
+      <c r="B199" t="s">
+        <v>18</v>
+      </c>
+      <c r="C199">
+        <v>1309.7960115503499</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>50</v>
+      </c>
+      <c r="B200" t="s">
+        <v>18</v>
+      </c>
+      <c r="C200">
+        <v>1311.8305925812499</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>144</v>
+      </c>
+      <c r="B201" t="s">
+        <v>18</v>
+      </c>
+      <c r="C201">
+        <v>1253.49797360752</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>143</v>
+      </c>
+      <c r="B202" t="s">
+        <v>18</v>
+      </c>
+      <c r="C202">
+        <v>1306.39649613236</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>145</v>
+      </c>
+      <c r="B203" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>52</v>
+      </c>
+      <c r="B204" t="s">
+        <v>18</v>
+      </c>
+      <c r="C204">
+        <v>869.43871924264204</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>151</v>
+      </c>
+      <c r="B205" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>56</v>
+      </c>
+      <c r="B206" t="s">
+        <v>18</v>
+      </c>
+      <c r="C206">
+        <v>581.95036170354501</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>57</v>
+      </c>
+      <c r="B207" t="s">
+        <v>18</v>
+      </c>
+      <c r="C207">
+        <v>554.71168071176805</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>161</v>
+      </c>
+      <c r="B208" t="s">
+        <v>18</v>
+      </c>
+      <c r="C208">
+        <v>537.25069813877201</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>158</v>
+      </c>
+      <c r="B209" t="s">
+        <v>18</v>
+      </c>
+      <c r="C209">
+        <v>580.56694159988103</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>150</v>
+      </c>
+      <c r="B210" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>128</v>
+      </c>
+      <c r="B211" t="s">
+        <v>25</v>
+      </c>
+      <c r="C211">
+        <v>261.99471678379899</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>128</v>
+      </c>
+      <c r="B212" t="s">
+        <v>25</v>
+      </c>
+      <c r="C212">
+        <v>261.99471678379899</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>132</v>
+      </c>
+      <c r="B213" t="s">
+        <v>25</v>
+      </c>
+      <c r="C213">
+        <v>524.00065515572305</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>174</v>
+      </c>
+      <c r="B214" t="s">
+        <v>25</v>
+      </c>
+      <c r="C214">
+        <v>312.16776265398403</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>90</v>
+      </c>
+      <c r="B215" t="s">
+        <v>25</v>
+      </c>
+      <c r="C215">
+        <v>363.50462451249001</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>90</v>
+      </c>
+      <c r="B216" t="s">
+        <v>25</v>
+      </c>
+      <c r="C216">
+        <v>364.04283232358603</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>76</v>
+      </c>
+      <c r="B217" t="s">
+        <v>25</v>
+      </c>
+      <c r="C217">
+        <v>339.09849535253699</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>29</v>
+      </c>
+      <c r="B218" t="s">
+        <v>25</v>
+      </c>
+      <c r="C218">
+        <v>362.28304163658902</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>29</v>
+      </c>
+      <c r="B219" t="s">
+        <v>25</v>
+      </c>
+      <c r="C219">
+        <v>362.28304163658902</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>29</v>
+      </c>
+      <c r="B220" t="s">
+        <v>25</v>
+      </c>
+      <c r="C220">
+        <v>384.26634402926902</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>130</v>
+      </c>
+      <c r="B221" t="s">
+        <v>25</v>
+      </c>
+      <c r="C221">
+        <v>391.45389126416097</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>71</v>
+      </c>
+      <c r="B222" t="s">
+        <v>25</v>
+      </c>
+      <c r="C222">
+        <v>415.15632573478501</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>71</v>
+      </c>
+      <c r="B223" t="s">
+        <v>25</v>
+      </c>
+      <c r="C223">
+        <v>415.15632573478501</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>71</v>
+      </c>
+      <c r="B224" t="s">
+        <v>25</v>
+      </c>
+      <c r="C224">
+        <v>415.15632573478501</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>80</v>
+      </c>
+      <c r="B225" t="s">
+        <v>25</v>
+      </c>
+      <c r="C225">
+        <v>337.29030325837499</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>88</v>
+      </c>
+      <c r="B226" t="s">
+        <v>25</v>
+      </c>
+      <c r="C226">
+        <v>519.17646035149596</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>88</v>
+      </c>
+      <c r="B227" t="s">
+        <v>25</v>
+      </c>
+      <c r="C227">
+        <v>516.85427187858602</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>85</v>
+      </c>
+      <c r="B228" t="s">
+        <v>25</v>
+      </c>
+      <c r="C228">
+        <v>402.58129125444498</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>75</v>
+      </c>
+      <c r="B229" t="s">
+        <v>25</v>
+      </c>
+      <c r="C229">
+        <v>307.675130761758</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>74</v>
+      </c>
+      <c r="B230" t="s">
+        <v>25</v>
+      </c>
+      <c r="C230">
+        <v>296.09622476145802</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>31</v>
+      </c>
+      <c r="B231" t="s">
+        <v>25</v>
+      </c>
+      <c r="C231">
+        <v>536.49909289396203</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>31</v>
+      </c>
+      <c r="B232" t="s">
+        <v>25</v>
+      </c>
+      <c r="C232">
+        <v>410.45710097990002</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>172</v>
+      </c>
+      <c r="B233" t="s">
+        <v>25</v>
+      </c>
+      <c r="C233">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>180</v>
+      </c>
+      <c r="B234" t="s">
+        <v>25</v>
+      </c>
+      <c r="C234">
+        <v>240.87746570621101</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>79</v>
+      </c>
+      <c r="B235" t="s">
+        <v>25</v>
+      </c>
+      <c r="C235">
+        <v>299.93573165754998</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>30</v>
+      </c>
+      <c r="B236" t="s">
+        <v>25</v>
+      </c>
+      <c r="C236">
+        <v>582.24929698530002</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>30</v>
+      </c>
+      <c r="B237" t="s">
+        <v>25</v>
+      </c>
+      <c r="C237">
+        <v>581.84253346209505</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>173</v>
+      </c>
+      <c r="B238" t="s">
+        <v>25</v>
+      </c>
+      <c r="C238">
+        <v>299.64345851907098</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>178</v>
+      </c>
+      <c r="B239" t="s">
+        <v>25</v>
+      </c>
+      <c r="C239">
+        <v>456.62210891351799</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>82</v>
+      </c>
+      <c r="B240" t="s">
+        <v>25</v>
+      </c>
+      <c r="C240">
+        <v>410.04543283608098</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>82</v>
+      </c>
+      <c r="B241" t="s">
+        <v>25</v>
+      </c>
+      <c r="C241">
+        <v>410.04543283608098</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>135</v>
+      </c>
+      <c r="B242" t="s">
+        <v>25</v>
+      </c>
+      <c r="C242">
+        <v>445.47445187519298</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>84</v>
+      </c>
+      <c r="B243" t="s">
+        <v>25</v>
+      </c>
+      <c r="C243">
+        <v>495.21046466974099</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>175</v>
+      </c>
+      <c r="B244" t="s">
+        <v>25</v>
+      </c>
+      <c r="C244">
+        <v>269.271475885001</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>133</v>
+      </c>
+      <c r="B245" t="s">
+        <v>25</v>
+      </c>
+      <c r="C245">
+        <v>394.86876069383999</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>179</v>
+      </c>
+      <c r="B246" t="s">
+        <v>25</v>
+      </c>
+      <c r="C246">
+        <v>310.82227460919597</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>28</v>
+      </c>
+      <c r="B247" t="s">
+        <v>25</v>
+      </c>
+      <c r="C247">
+        <v>411.34333820791699</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>28</v>
+      </c>
+      <c r="B248" t="s">
+        <v>25</v>
+      </c>
+      <c r="C248">
+        <v>405.608088208455</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>91</v>
+      </c>
+      <c r="B249" t="s">
+        <v>25</v>
+      </c>
+      <c r="C249">
+        <v>482.26037413391202</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>126</v>
+      </c>
+      <c r="B250" t="s">
+        <v>25</v>
+      </c>
+      <c r="C250">
+        <v>270.14352758818001</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>86</v>
+      </c>
+      <c r="B251" t="s">
+        <v>25</v>
+      </c>
+      <c r="C251">
+        <v>399.71780766291602</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>89</v>
+      </c>
+      <c r="B252" t="s">
+        <v>25</v>
+      </c>
+      <c r="C252">
+        <v>443.97953740653099</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>129</v>
+      </c>
+      <c r="B253" t="s">
+        <v>25</v>
+      </c>
+      <c r="C253">
+        <v>513.60240050692005</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>129</v>
+      </c>
+      <c r="B254" t="s">
+        <v>25</v>
+      </c>
+      <c r="C254">
+        <v>513.60240050692005</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>181</v>
+      </c>
+      <c r="B255" t="s">
+        <v>25</v>
+      </c>
+      <c r="C255">
+        <v>580.74039626700198</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>131</v>
+      </c>
+      <c r="B256" t="s">
+        <v>25</v>
+      </c>
+      <c r="C256">
+        <v>406.41030074679998</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>24</v>
+      </c>
+      <c r="B257" t="s">
+        <v>25</v>
+      </c>
+      <c r="C257">
+        <v>392.22791816699299</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>24</v>
+      </c>
+      <c r="B258" t="s">
+        <v>25</v>
+      </c>
+      <c r="C258">
+        <v>392.22791816699299</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>78</v>
+      </c>
+      <c r="B259" t="s">
+        <v>25</v>
+      </c>
+      <c r="C259">
+        <v>282.39659498731203</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>78</v>
+      </c>
+      <c r="B260" t="s">
+        <v>25</v>
+      </c>
+      <c r="C260">
+        <v>282.39659498731203</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>87</v>
+      </c>
+      <c r="B261" t="s">
+        <v>25</v>
+      </c>
+      <c r="C261">
+        <v>401.04076538522901</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>87</v>
+      </c>
+      <c r="B262" t="s">
+        <v>25</v>
+      </c>
+      <c r="C262">
+        <v>394.20063492523599</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>127</v>
+      </c>
+      <c r="B263" t="s">
+        <v>25</v>
+      </c>
+      <c r="C263">
+        <v>260.85179169039299</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>72</v>
+      </c>
+      <c r="B264" t="s">
+        <v>25</v>
+      </c>
+      <c r="C264">
+        <v>444.78707245718903</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>26</v>
+      </c>
+      <c r="B265" t="s">
+        <v>25</v>
+      </c>
+      <c r="C265">
+        <v>255.74725207528701</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>26</v>
+      </c>
+      <c r="B266" t="s">
+        <v>25</v>
+      </c>
+      <c r="C266">
+        <v>255.74725207528701</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>26</v>
+      </c>
+      <c r="B267" t="s">
+        <v>25</v>
+      </c>
+      <c r="C267">
+        <v>255.74725207528701</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>77</v>
+      </c>
+      <c r="B268" t="s">
+        <v>25</v>
+      </c>
+      <c r="C268">
+        <v>323.51700484053998</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>134</v>
+      </c>
+      <c r="B269" t="s">
+        <v>25</v>
+      </c>
+      <c r="C269">
+        <v>349.01254921401897</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>27</v>
+      </c>
+      <c r="B270" t="s">
+        <v>25</v>
+      </c>
+      <c r="C270">
+        <v>397.17268710168503</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>27</v>
+      </c>
+      <c r="B271" t="s">
+        <v>25</v>
+      </c>
+      <c r="C271">
+        <v>397.17268710168503</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>81</v>
+      </c>
+      <c r="B272" t="s">
+        <v>25</v>
+      </c>
+      <c r="C272">
+        <v>409.72194343313402</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>73</v>
+      </c>
+      <c r="B273" t="s">
+        <v>25</v>
+      </c>
+      <c r="C273">
+        <v>287.69047869978903</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>176</v>
+      </c>
+      <c r="B274" t="s">
+        <v>25</v>
+      </c>
+      <c r="C274">
+        <v>312.14756304767502</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>177</v>
+      </c>
+      <c r="B275" t="s">
+        <v>25</v>
+      </c>
+      <c r="C275">
+        <v>296.63972641937602</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>83</v>
+      </c>
+      <c r="B276" t="s">
+        <v>25</v>
+      </c>
+      <c r="C276">
+        <v>458.07200540431802</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>92</v>
+      </c>
+      <c r="B277" t="s">
+        <v>25</v>
+      </c>
+      <c r="C277">
+        <v>354.379263923449</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C277">
+    <sortCondition ref="B2:B277"/>
+    <sortCondition ref="A2:A277"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>